--- a/warehouse_stock_and_manufacturing_process_design.xlsx
+++ b/warehouse_stock_and_manufacturing_process_design.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="191">
   <si>
     <t>Reference</t>
   </si>
@@ -462,36 +462,114 @@
     <t xml:space="preserve">BOM - Kit</t>
   </si>
   <si>
+    <t>Decription</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Raw / Finished Goods</t>
+  </si>
+  <si>
+    <t>Procduction</t>
+  </si>
+  <si>
+    <t>QC</t>
+  </si>
+  <si>
     <t xml:space="preserve">Product Code must be unique and required </t>
   </si>
   <si>
+    <t xml:space="preserve">Customer Name</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Confirm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Delivery order</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click request the Manufacturing Order from Delivery Order, System will generate below MO automaticaly create MO depand on BOM</t>
+  </si>
+  <si>
     <t xml:space="preserve">Final Processes</t>
   </si>
   <si>
+    <t xml:space="preserve">Work Center Assembly</t>
+  </si>
+  <si>
     <t xml:space="preserve">If less</t>
   </si>
   <si>
+    <t xml:space="preserve">Bill of Material</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finished A</t>
+  </si>
+  <si>
     <t>Accessories</t>
   </si>
   <si>
     <t xml:space="preserve">Thirt Processes</t>
   </si>
   <si>
+    <t xml:space="preserve">Work Center Component</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Component BOM A</t>
+  </si>
+  <si>
     <t xml:space="preserve">Request PO</t>
   </si>
   <si>
+    <t xml:space="preserve">Component BOM B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Component BOM C</t>
+  </si>
+  <si>
     <t xml:space="preserve">Second Processes</t>
   </si>
   <si>
     <t xml:space="preserve">Ref : WH/MO/0002, 03, 04</t>
   </si>
   <si>
+    <t xml:space="preserve">Work Center Semi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Semi BOM A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Semi BOM B</t>
+  </si>
+  <si>
     <t xml:space="preserve">First Processes</t>
   </si>
   <si>
     <t xml:space="preserve">Ref : WH/MO/0005, 06</t>
   </si>
   <si>
+    <t xml:space="preserve">Work Center Sub-Semi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sub-Semi BOM A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sub-Semi BOM B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prodcut Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Porduct A</t>
+  </si>
+  <si>
+    <t>Kit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wrok Center Kit</t>
+  </si>
+  <si>
     <t xml:space="preserve">Purchase Order</t>
   </si>
   <si>
@@ -505,9 +583,6 @@
   </si>
   <si>
     <t xml:space="preserve">Receiving </t>
-  </si>
-  <si>
-    <t>Price</t>
   </si>
   <si>
     <t xml:space="preserve">From </t>
@@ -637,7 +712,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -680,6 +755,24 @@
         <bgColor rgb="FF00B050"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor theme="7" tint="0.59999389629810485"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor theme="7" tint="0.39997558519241921"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor theme="6" tint="0.39997558519241921"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -700,7 +793,7 @@
     <xf fontId="1" fillId="0" borderId="0" numFmtId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0"/>
     <xf fontId="1" fillId="0" borderId="0" numFmtId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="50">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyProtection="0">
       <protection hidden="0" locked="1"/>
     </xf>
@@ -819,10 +912,27 @@
       <alignment horizontal="right"/>
       <protection hidden="0" locked="1"/>
     </xf>
-    <xf fontId="19" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyProtection="0">
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyProtection="0">
       <protection hidden="0" locked="1"/>
     </xf>
-    <xf fontId="5" fillId="3" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="0">
+    <xf fontId="5" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center"/>
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="5" fillId="8" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center"/>
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="4" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center"/>
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="0" fillId="9" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center"/>
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="19" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="center"/>
       <protection hidden="0" locked="1"/>
     </xf>
     <xf fontId="20" fillId="6" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="0">
@@ -831,14 +941,14 @@
     <xf fontId="1" fillId="5" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="0">
       <protection hidden="0" locked="1"/>
     </xf>
-    <xf fontId="0" fillId="5" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyProtection="0">
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center"/>
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="0" fillId="10" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyProtection="0">
       <protection hidden="0" locked="1"/>
     </xf>
     <xf fontId="10" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center"/>
-      <protection hidden="0" locked="1"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center"/>
       <protection hidden="0" locked="1"/>
     </xf>
@@ -846,33 +956,14 @@
       <alignment horizontal="right"/>
       <protection hidden="0" locked="1"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyProtection="0">
-      <protection hidden="0" locked="1"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center"/>
-      <protection hidden="0" locked="1"/>
-    </xf>
     <xf fontId="0" fillId="6" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyProtection="0">
       <protection hidden="0" locked="1"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center"/>
+    <xf fontId="0" fillId="10" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyProtection="0">
       <protection hidden="0" locked="1"/>
     </xf>
     <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="1"/>
-    </xf>
-    <xf fontId="16" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right"/>
-      <protection hidden="0" locked="1"/>
-    </xf>
-    <xf fontId="5" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center"/>
-      <protection hidden="0" locked="1"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyProtection="0">
       <protection hidden="0" locked="1"/>
     </xf>
   </cellXfs>
@@ -3678,20 +3769,20 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView topLeftCell="A56" zoomScale="100" workbookViewId="0">
+    <sheetView topLeftCell="A29" zoomScale="100" workbookViewId="0">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col bestFit="1" min="1" max="1" width="8.7109375"/>
-    <col customWidth="1" min="2" max="2" width="23.28125"/>
+    <col customWidth="1" min="2" max="2" width="25.57421875"/>
     <col bestFit="1" customWidth="1" min="3" max="3" width="18.28125"/>
     <col customWidth="1" min="4" max="4" width="19.7109375"/>
-    <col bestFit="1" min="5" max="5" width="18.00390625"/>
+    <col bestFit="1" min="5" max="5" width="21.421875"/>
     <col bestFit="1" customWidth="1" min="6" max="6" width="23.140625"/>
-    <col bestFit="1" min="7" max="7" width="20.00390625"/>
-    <col bestFit="1" customWidth="1" min="8" max="8" width="14.00390625"/>
+    <col bestFit="1" min="7" max="7" width="21.421875"/>
+    <col bestFit="1" customWidth="1" min="8" max="8" width="20.00390625"/>
     <col bestFit="1" customWidth="1" min="9" max="9" width="10.00390625"/>
     <col customWidth="1" min="10" max="10" width="63.8515625"/>
   </cols>
@@ -3719,6 +3810,9 @@
       <c r="E3" t="s">
         <v>22</v>
       </c>
+      <c r="F3" t="s">
+        <v>147</v>
+      </c>
       <c r="J3" s="3" t="s">
         <v>23</v>
       </c>
@@ -3731,10 +3825,13 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>27</v>
+      </c>
+      <c r="F4" t="s">
+        <v>148</v>
       </c>
       <c r="J4" s="5" t="s">
         <v>28</v>
@@ -3760,7 +3857,9 @@
       <c r="E6" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="5"/>
+      <c r="F6" s="35" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="7" ht="12.75">
       <c r="C7" t="s">
@@ -3814,7 +3913,9 @@
       <c r="E11" t="s">
         <v>39</v>
       </c>
-      <c r="F11" s="5"/>
+      <c r="F11" s="35" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="12" ht="12.75">
       <c r="C12" s="5"/>
@@ -3834,7 +3935,9 @@
       <c r="E13" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F13" s="5"/>
+      <c r="F13" s="35" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="14" ht="12.75">
       <c r="C14" s="5"/>
@@ -3855,7 +3958,9 @@
       <c r="E15" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F15" s="5"/>
+      <c r="F15" s="35" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="16" ht="12.75">
       <c r="B16" s="5"/>
@@ -3903,7 +4008,7 @@
       </c>
       <c r="F19" s="5"/>
       <c r="J19" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
     </row>
     <row r="20" ht="12.75">
@@ -3963,9 +4068,6 @@
       <c r="B26" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="C26" t="s">
-        <v>44</v>
-      </c>
       <c r="D26" t="s">
         <v>58</v>
       </c>
@@ -3978,24 +4080,37 @@
         <v>59</v>
       </c>
       <c r="C27" t="s">
+        <v>152</v>
+      </c>
+      <c r="D27" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="D27" t="s">
+      <c r="E27" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="F27" s="5"/>
+      <c r="F27" s="36" t="s">
+        <v>153</v>
+      </c>
+      <c r="G27" s="37" t="s">
+        <v>154</v>
+      </c>
+      <c r="H27" s="37" t="s">
+        <v>155</v>
+      </c>
       <c r="J27" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="28" ht="12.75">
-      <c r="C28" s="10" t="s">
+      <c r="C28" t="s">
+        <v>44</v>
+      </c>
+      <c r="D28" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="D28">
-        <v>10</v>
-      </c>
-      <c r="E28" s="5"/>
+      <c r="E28">
+        <v>10</v>
+      </c>
       <c r="F28" s="5"/>
       <c r="J28" t="s">
         <v>64</v>
@@ -4042,19 +4157,19 @@
       <c r="C34" t="s">
         <v>44</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D34" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="E34" t="s">
+      <c r="E34" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="F34" t="s">
+      <c r="F34" s="38" t="s">
         <v>70</v>
       </c>
       <c r="G34" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="H34" t="s">
+      <c r="H34" s="39" t="s">
         <v>72</v>
       </c>
       <c r="J34" t="s">
@@ -4132,39 +4247,39 @@
       <c r="A42" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="B42" s="35" t="s">
-        <v>81</v>
+      <c r="B42" s="40" t="s">
+        <v>156</v>
       </c>
       <c r="J42" s="3" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="43" s="0" customFormat="1" ht="14.25">
-      <c r="A43" s="36"/>
-      <c r="B43" s="37" t="s">
-        <v>148</v>
+      <c r="A43" s="8"/>
+      <c r="B43" s="41" t="s">
+        <v>157</v>
       </c>
       <c r="J43" s="3"/>
     </row>
     <row r="44" s="0" customFormat="1" ht="12.75">
-      <c r="A44">
-        <f>SUM(A45:A129)</f>
+      <c r="A44" s="36">
+        <f>SUM(A45:A124)</f>
         <v>8</v>
       </c>
-      <c r="B44" s="38"/>
+      <c r="B44" s="42"/>
       <c r="C44" s="20"/>
       <c r="D44" s="20"/>
       <c r="E44" s="20"/>
       <c r="F44" s="20"/>
       <c r="G44" s="20"/>
-      <c r="H44" s="39"/>
-      <c r="I44" s="39"/>
+      <c r="H44" s="20"/>
+      <c r="I44" s="20"/>
       <c r="J44" s="5" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="45" ht="12.75">
-      <c r="A45">
+      <c r="A45" s="43">
         <v>1</v>
       </c>
       <c r="B45" s="15" t="s">
@@ -4177,7 +4292,7 @@
       </c>
     </row>
     <row r="46" ht="12.75">
-      <c r="A46" s="5"/>
+      <c r="A46" s="43"/>
       <c r="B46" t="s">
         <v>55</v>
       </c>
@@ -4187,19 +4302,23 @@
       <c r="D46" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="I46" s="40" t="s">
-        <v>149</v>
+      <c r="E46" s="44" t="s">
+        <v>158</v>
+      </c>
+      <c r="I46" s="45" t="s">
+        <v>159</v>
       </c>
       <c r="J46" s="8" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="47" ht="12.75">
+      <c r="A47" s="43"/>
       <c r="B47" t="s">
-        <v>3</v>
-      </c>
-      <c r="C47">
-        <v>10</v>
+        <v>160</v>
+      </c>
+      <c r="C47" t="s">
+        <v>161</v>
       </c>
       <c r="D47" s="19" t="s">
         <v>87</v>
@@ -4207,7 +4326,7 @@
       <c r="E47">
         <v>10</v>
       </c>
-      <c r="I47" s="41" t="s">
+      <c r="I47" s="43" t="s">
         <v>88</v>
       </c>
       <c r="J47" t="s">
@@ -4215,11 +4334,12 @@
       </c>
     </row>
     <row r="48" ht="14.25" customHeight="1">
+      <c r="A48" s="43"/>
       <c r="B48" t="s">
-        <v>90</v>
+        <v>3</v>
       </c>
       <c r="C48">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D48" s="19" t="s">
         <v>91</v>
@@ -4227,36 +4347,45 @@
       <c r="E48">
         <v>10</v>
       </c>
-      <c r="I48" s="41" t="s">
+      <c r="I48" s="43" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="49" ht="12.75">
+      <c r="A49" s="43"/>
+      <c r="B49" t="s">
+        <v>90</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
       <c r="D49" s="19" t="s">
         <v>93</v>
       </c>
       <c r="E49">
         <v>10</v>
       </c>
-      <c r="I49" s="41" t="s">
+      <c r="I49" s="43" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="50" ht="12.75">
-      <c r="D50" s="42" t="s">
-        <v>150</v>
-      </c>
-      <c r="E50" s="43">
+      <c r="A50" s="43"/>
+      <c r="D50" s="46" t="s">
+        <v>162</v>
+      </c>
+      <c r="E50" s="5">
         <v>20</v>
       </c>
-      <c r="G50" s="43"/>
-      <c r="I50" s="44" t="s">
+      <c r="G50" s="5"/>
+      <c r="I50" s="43" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="51" ht="12.75">
-      <c r="B51" s="45" t="s">
-        <v>151</v>
+      <c r="A51" s="43"/>
+      <c r="B51" s="47" t="s">
+        <v>163</v>
       </c>
       <c r="C51" s="20"/>
       <c r="D51" s="21"/>
@@ -4270,7 +4399,7 @@
       </c>
     </row>
     <row r="52" ht="12.75">
-      <c r="A52">
+      <c r="A52" s="43">
         <v>1</v>
       </c>
       <c r="C52" s="22" t="s">
@@ -4283,14 +4412,15 @@
       <c r="F52" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="I52" s="40" t="s">
-        <v>149</v>
+      <c r="I52" s="45" t="s">
+        <v>159</v>
       </c>
       <c r="J52" s="18" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="53" ht="12.75">
+      <c r="A53" s="43"/>
       <c r="C53" s="5" t="s">
         <v>55</v>
       </c>
@@ -4300,17 +4430,21 @@
       <c r="E53" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="I53" s="41"/>
+      <c r="F53" s="48" t="s">
+        <v>164</v>
+      </c>
+      <c r="I53" s="43"/>
       <c r="J53" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="54" ht="12.75">
+      <c r="A54" s="43"/>
       <c r="C54" t="s">
-        <v>3</v>
-      </c>
-      <c r="D54">
-        <v>10</v>
+        <v>160</v>
+      </c>
+      <c r="D54" t="s">
+        <v>165</v>
       </c>
       <c r="E54" s="25" t="s">
         <v>99</v>
@@ -4318,7 +4452,7 @@
       <c r="F54">
         <v>10</v>
       </c>
-      <c r="I54" s="46" t="s">
+      <c r="I54" s="43" t="s">
         <v>88</v>
       </c>
       <c r="J54" t="s">
@@ -4326,32 +4460,41 @@
       </c>
     </row>
     <row r="55" ht="12.75">
+      <c r="A55" s="43"/>
+      <c r="C55" t="s">
+        <v>3</v>
+      </c>
+      <c r="D55">
+        <v>10</v>
+      </c>
       <c r="E55" s="25" t="s">
         <v>100</v>
       </c>
       <c r="F55">
         <v>10</v>
       </c>
-      <c r="I55" s="41" t="s">
+      <c r="I55" s="43" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="56" ht="12.75">
-      <c r="C56" s="43"/>
+      <c r="A56" s="43"/>
+      <c r="C56" s="5"/>
       <c r="E56" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="F56" s="43">
+        <v>162</v>
+      </c>
+      <c r="F56" s="5">
         <v>20</v>
       </c>
-      <c r="H56" s="43"/>
-      <c r="I56" s="46" t="s">
+      <c r="H56" s="5"/>
+      <c r="I56" s="43" t="s">
         <v>94</v>
       </c>
-      <c r="N56" s="43"/>
-      <c r="O56" s="43"/>
+      <c r="N56" s="5"/>
+      <c r="O56" s="5"/>
     </row>
     <row r="57" ht="12.75">
+      <c r="A57" s="43"/>
       <c r="C57" s="20"/>
       <c r="D57" s="20"/>
       <c r="E57" s="20"/>
@@ -4360,13 +4503,13 @@
       <c r="H57" s="20"/>
       <c r="I57" s="20"/>
       <c r="J57" s="8" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="N57" s="5"/>
       <c r="O57" s="5"/>
     </row>
     <row r="58" ht="12.75">
-      <c r="A58">
+      <c r="A58" s="43">
         <v>1</v>
       </c>
       <c r="C58" s="22" t="s">
@@ -4379,8 +4522,8 @@
       <c r="F58" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="I58" s="40" t="s">
-        <v>149</v>
+      <c r="I58" s="45" t="s">
+        <v>159</v>
       </c>
       <c r="J58" s="5" t="s">
         <v>103</v>
@@ -4389,6 +4532,7 @@
       <c r="O58" s="5"/>
     </row>
     <row r="59" ht="12.75">
+      <c r="A59" s="43"/>
       <c r="C59" t="s">
         <v>55</v>
       </c>
@@ -4398,7 +4542,10 @@
       <c r="E59" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="I59" s="41"/>
+      <c r="F59" s="48" t="s">
+        <v>164</v>
+      </c>
+      <c r="I59" s="43"/>
       <c r="J59" s="5" t="s">
         <v>104</v>
       </c>
@@ -4406,11 +4553,12 @@
       <c r="O59" s="5"/>
     </row>
     <row r="60" ht="12.75">
+      <c r="A60" s="43"/>
       <c r="C60" t="s">
-        <v>3</v>
-      </c>
-      <c r="D60">
-        <v>10</v>
+        <v>160</v>
+      </c>
+      <c r="D60" s="35" t="s">
+        <v>167</v>
       </c>
       <c r="E60" s="25" t="s">
         <v>99</v>
@@ -4418,18 +4566,19 @@
       <c r="F60">
         <v>10</v>
       </c>
-      <c r="I60" s="41" t="s">
+      <c r="I60" s="43" t="s">
         <v>88</v>
       </c>
       <c r="N60" s="5"/>
       <c r="O60" s="5"/>
     </row>
     <row r="61" ht="12.75">
+      <c r="A61" s="43"/>
       <c r="C61" t="s">
-        <v>90</v>
+        <v>3</v>
       </c>
       <c r="D61">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E61" s="25" t="s">
         <v>100</v>
@@ -4437,31 +4586,29 @@
       <c r="F61">
         <v>10</v>
       </c>
-      <c r="I61" s="41" t="s">
+      <c r="I61" s="43" t="s">
         <v>88</v>
       </c>
       <c r="N61" s="5"/>
       <c r="O61" s="5"/>
     </row>
     <row r="62" ht="12.75">
-      <c r="C62" s="43"/>
-      <c r="D62" s="43"/>
+      <c r="A62" s="43"/>
       <c r="E62" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="F62" s="43">
+        <v>162</v>
+      </c>
+      <c r="F62" s="5">
         <v>20</v>
       </c>
-      <c r="G62" s="43"/>
-      <c r="H62" s="43"/>
-      <c r="I62" s="44" t="s">
+      <c r="G62" s="5"/>
+      <c r="H62" s="5"/>
+      <c r="I62" s="43" t="s">
         <v>94</v>
       </c>
-      <c r="J62" s="43"/>
-      <c r="N62"/>
-      <c r="O62"/>
+      <c r="J62" s="5"/>
     </row>
     <row r="63" ht="12.75">
+      <c r="A63" s="43"/>
       <c r="C63" s="20"/>
       <c r="D63" s="20"/>
       <c r="E63" s="30"/>
@@ -4473,7 +4620,7 @@
       <c r="O63" s="5"/>
     </row>
     <row r="64" ht="12.75">
-      <c r="A64">
+      <c r="A64" s="43">
         <v>1</v>
       </c>
       <c r="C64" s="22" t="s">
@@ -4486,13 +4633,14 @@
       <c r="F64" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="I64" s="40" t="s">
-        <v>149</v>
+      <c r="I64" s="45" t="s">
+        <v>159</v>
       </c>
       <c r="N64" s="5"/>
       <c r="O64" s="5"/>
     </row>
     <row r="65" ht="12.75">
+      <c r="A65" s="43"/>
       <c r="C65" t="s">
         <v>55</v>
       </c>
@@ -4502,16 +4650,20 @@
       <c r="E65" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="I65" s="41"/>
+      <c r="F65" s="44" t="s">
+        <v>164</v>
+      </c>
+      <c r="I65" s="43"/>
       <c r="N65" s="5"/>
       <c r="O65" s="5"/>
     </row>
     <row r="66" ht="12.75">
+      <c r="A66" s="43"/>
       <c r="C66" t="s">
-        <v>3</v>
-      </c>
-      <c r="D66">
-        <v>10</v>
+        <v>160</v>
+      </c>
+      <c r="D66" s="35" t="s">
+        <v>168</v>
       </c>
       <c r="E66" s="25" t="s">
         <v>99</v>
@@ -4519,18 +4671,19 @@
       <c r="F66">
         <v>10</v>
       </c>
-      <c r="I66" s="41" t="s">
+      <c r="I66" s="43" t="s">
         <v>88</v>
       </c>
       <c r="N66" s="5"/>
       <c r="O66" s="5"/>
     </row>
     <row r="67" ht="12.75">
+      <c r="A67" s="43"/>
       <c r="C67" t="s">
-        <v>90</v>
+        <v>3</v>
       </c>
       <c r="D67">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E67" s="25" t="s">
         <v>100</v>
@@ -4538,35 +4691,33 @@
       <c r="F67">
         <v>10</v>
       </c>
-      <c r="I67" s="41" t="s">
+      <c r="I67" s="43" t="s">
         <v>88</v>
       </c>
       <c r="N67" s="5"/>
       <c r="O67" s="5"/>
     </row>
     <row r="68" ht="12.75">
-      <c r="C68" s="43"/>
-      <c r="D68" s="43"/>
+      <c r="A68" s="43"/>
       <c r="E68" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="F68" s="43">
+        <v>162</v>
+      </c>
+      <c r="F68" s="5">
         <v>20</v>
       </c>
-      <c r="G68" s="43"/>
-      <c r="H68" s="43"/>
-      <c r="I68" s="41" t="s">
+      <c r="G68" s="5"/>
+      <c r="H68" s="5"/>
+      <c r="I68" s="43" t="s">
         <v>94</v>
       </c>
-      <c r="J68" s="43"/>
-      <c r="N68"/>
-      <c r="O68"/>
+      <c r="J68" s="5"/>
     </row>
     <row r="69" ht="12.75">
-      <c r="B69" s="45" t="s">
-        <v>153</v>
-      </c>
-      <c r="C69" s="45"/>
+      <c r="A69" s="43"/>
+      <c r="B69" s="47" t="s">
+        <v>169</v>
+      </c>
+      <c r="C69" s="47"/>
       <c r="D69" s="20"/>
       <c r="E69" s="21"/>
       <c r="F69" s="20"/>
@@ -4577,7 +4728,7 @@
       <c r="O69" s="5"/>
     </row>
     <row r="70" ht="12.75">
-      <c r="A70">
+      <c r="A70" s="43">
         <v>1</v>
       </c>
       <c r="D70" s="22" t="s">
@@ -4585,19 +4736,20 @@
       </c>
       <c r="E70" s="22"/>
       <c r="F70" s="23" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="G70" s="9" t="s">
         <v>76</v>
       </c>
       <c r="H70" s="5"/>
-      <c r="I70" s="40" t="s">
-        <v>149</v>
+      <c r="I70" s="45" t="s">
+        <v>159</v>
       </c>
       <c r="N70" s="5"/>
       <c r="O70" s="5"/>
     </row>
     <row r="71" ht="12.75">
+      <c r="A71" s="43"/>
       <c r="D71" t="s">
         <v>55</v>
       </c>
@@ -4607,18 +4759,21 @@
       <c r="F71" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="G71" s="5"/>
+      <c r="G71" s="48" t="s">
+        <v>171</v>
+      </c>
       <c r="H71" s="5"/>
-      <c r="I71" s="41"/>
+      <c r="I71" s="43"/>
       <c r="N71" s="5"/>
       <c r="O71" s="5"/>
     </row>
     <row r="72" ht="12.75">
+      <c r="A72" s="43"/>
       <c r="D72" t="s">
-        <v>3</v>
-      </c>
-      <c r="E72">
-        <v>30</v>
+        <v>160</v>
+      </c>
+      <c r="E72" s="35" t="s">
+        <v>172</v>
       </c>
       <c r="F72" s="26" t="s">
         <v>105</v>
@@ -4627,14 +4782,20 @@
         <v>30</v>
       </c>
       <c r="H72" s="5"/>
-      <c r="I72" s="41" t="s">
+      <c r="I72" s="43" t="s">
         <v>88</v>
       </c>
       <c r="N72" s="5"/>
       <c r="O72" s="5"/>
     </row>
     <row r="73" ht="12.75">
-      <c r="E73" s="5"/>
+      <c r="A73" s="43"/>
+      <c r="D73" t="s">
+        <v>3</v>
+      </c>
+      <c r="E73">
+        <v>30</v>
+      </c>
       <c r="F73" s="26" t="s">
         <v>106</v>
       </c>
@@ -4642,31 +4803,31 @@
         <v>30</v>
       </c>
       <c r="H73" s="5"/>
-      <c r="I73" s="41" t="s">
+      <c r="I73" s="43" t="s">
         <v>88</v>
       </c>
       <c r="N73" s="5"/>
       <c r="O73" s="5"/>
     </row>
     <row r="74" ht="12.75">
-      <c r="C74" s="43"/>
-      <c r="D74" s="43"/>
-      <c r="E74"/>
-      <c r="F74" s="47" t="s">
-        <v>150</v>
+      <c r="A74" s="43"/>
+      <c r="C74" s="5"/>
+      <c r="D74" s="5"/>
+      <c r="F74" s="49" t="s">
+        <v>162</v>
       </c>
       <c r="G74">
         <v>20</v>
       </c>
-      <c r="H74"/>
-      <c r="I74" s="44" t="s">
+      <c r="I74" s="43" t="s">
         <v>94</v>
       </c>
-      <c r="J74" s="43"/>
-      <c r="N74" s="43"/>
-      <c r="O74" s="43"/>
+      <c r="J74" s="5"/>
+      <c r="N74" s="5"/>
+      <c r="O74" s="5"/>
     </row>
     <row r="75" ht="12.75">
+      <c r="A75" s="43"/>
       <c r="D75" s="20"/>
       <c r="E75" s="20"/>
       <c r="F75" s="20"/>
@@ -4675,7 +4836,7 @@
       <c r="I75" s="20"/>
     </row>
     <row r="76" ht="12.75">
-      <c r="A76">
+      <c r="A76" s="43">
         <v>1</v>
       </c>
       <c r="C76" s="5"/>
@@ -4684,16 +4845,17 @@
       </c>
       <c r="E76" s="22"/>
       <c r="F76" s="23" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="G76" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="I76" s="40" t="s">
-        <v>149</v>
+      <c r="I76" s="45" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="77" ht="12.75">
+      <c r="A77" s="43"/>
       <c r="C77" s="5"/>
       <c r="D77" t="s">
         <v>55</v>
@@ -4704,16 +4866,19 @@
       <c r="F77" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="G77" s="5"/>
-      <c r="I77" s="41"/>
+      <c r="G77" s="44" t="s">
+        <v>171</v>
+      </c>
+      <c r="I77" s="43"/>
     </row>
     <row r="78" ht="12.75">
+      <c r="A78" s="43"/>
       <c r="C78" s="5"/>
       <c r="D78" t="s">
-        <v>3</v>
-      </c>
-      <c r="E78">
-        <v>30</v>
+        <v>160</v>
+      </c>
+      <c r="E78" s="35" t="s">
+        <v>173</v>
       </c>
       <c r="F78" s="26" t="s">
         <v>105</v>
@@ -4721,44 +4886,52 @@
       <c r="G78" s="5">
         <v>30</v>
       </c>
-      <c r="I78" s="41" t="s">
+      <c r="I78" s="43" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="79" ht="12.75">
+      <c r="A79" s="43"/>
       <c r="C79" s="5"/>
+      <c r="D79" t="s">
+        <v>3</v>
+      </c>
+      <c r="E79">
+        <v>30</v>
+      </c>
       <c r="F79" s="26" t="s">
         <v>106</v>
       </c>
       <c r="G79" s="5">
         <v>30</v>
       </c>
-      <c r="I79" s="41" t="s">
+      <c r="I79" s="43" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="80" ht="12.75">
-      <c r="C80"/>
-      <c r="D80" s="43"/>
-      <c r="E80" s="43"/>
-      <c r="F80" s="47" t="s">
-        <v>150</v>
+      <c r="A80" s="43"/>
+      <c r="D80" s="5"/>
+      <c r="E80" s="5"/>
+      <c r="F80" s="49" t="s">
+        <v>162</v>
       </c>
       <c r="G80">
         <v>20</v>
       </c>
-      <c r="H80" s="43"/>
-      <c r="I80" s="44" t="s">
+      <c r="H80" s="5"/>
+      <c r="I80" s="43" t="s">
         <v>94</v>
       </c>
-      <c r="J80" s="43"/>
+      <c r="J80" s="5"/>
     </row>
     <row r="81" ht="12.75">
-      <c r="B81" s="45" t="s">
-        <v>155</v>
-      </c>
-      <c r="C81" s="45"/>
-      <c r="D81" s="45"/>
+      <c r="A81" s="43"/>
+      <c r="B81" s="47" t="s">
+        <v>174</v>
+      </c>
+      <c r="C81" s="47"/>
+      <c r="D81" s="47"/>
       <c r="E81" s="20"/>
       <c r="F81" s="27"/>
       <c r="G81" s="20"/>
@@ -4766,7 +4939,7 @@
       <c r="I81" s="20"/>
     </row>
     <row r="82" ht="12.75">
-      <c r="A82">
+      <c r="A82" s="43">
         <v>1</v>
       </c>
       <c r="C82" s="5"/>
@@ -4776,16 +4949,17 @@
       </c>
       <c r="F82" s="22"/>
       <c r="G82" s="23" t="s">
-        <v>156</v>
+        <v>175</v>
       </c>
       <c r="H82" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="I82" s="40" t="s">
-        <v>149</v>
+      <c r="I82" s="45" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="83" ht="12.75">
+      <c r="A83" s="43"/>
       <c r="C83" s="5"/>
       <c r="D83" s="5"/>
       <c r="E83" s="5" t="s">
@@ -4797,17 +4971,20 @@
       <c r="G83" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="H83" s="5"/>
-      <c r="I83" s="41"/>
+      <c r="H83" s="48" t="s">
+        <v>176</v>
+      </c>
+      <c r="I83" s="43"/>
     </row>
     <row r="84" ht="12.75">
+      <c r="A84" s="43"/>
       <c r="C84" s="5"/>
       <c r="D84" s="5"/>
       <c r="E84" t="s">
-        <v>3</v>
-      </c>
-      <c r="F84">
-        <v>60</v>
+        <v>160</v>
+      </c>
+      <c r="F84" s="35" t="s">
+        <v>177</v>
       </c>
       <c r="G84" s="29" t="s">
         <v>109</v>
@@ -4815,49 +4992,57 @@
       <c r="H84" s="5">
         <v>60</v>
       </c>
-      <c r="I84" s="46" t="s">
+      <c r="I84" s="43" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="85" ht="12.75">
+      <c r="A85" s="43"/>
       <c r="C85" s="5"/>
       <c r="D85" s="5"/>
-      <c r="E85" s="5"/>
-      <c r="F85" s="5"/>
+      <c r="E85" t="s">
+        <v>3</v>
+      </c>
+      <c r="F85">
+        <v>60</v>
+      </c>
       <c r="G85" s="29" t="s">
         <v>110</v>
       </c>
       <c r="H85" s="5">
         <v>60</v>
       </c>
-      <c r="I85" s="46" t="s">
+      <c r="I85" s="43" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="86" ht="12.75">
+      <c r="A86" s="43"/>
       <c r="G86" s="29" t="s">
         <v>111</v>
       </c>
       <c r="H86">
         <v>60</v>
       </c>
-      <c r="I86" s="46" t="s">
+      <c r="I86" s="43" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="87" ht="12.75">
-      <c r="G87" s="47" t="s">
-        <v>150</v>
-      </c>
-      <c r="H87" s="43">
+      <c r="A87" s="43"/>
+      <c r="G87" s="49" t="s">
+        <v>162</v>
+      </c>
+      <c r="H87" s="5">
         <v>20</v>
       </c>
-      <c r="I87" s="46" t="s">
+      <c r="I87" s="43" t="s">
         <v>94</v>
       </c>
-      <c r="J87" s="43"/>
+      <c r="J87" s="5"/>
     </row>
     <row r="88" ht="12.75">
+      <c r="A88" s="43"/>
       <c r="E88" s="20"/>
       <c r="F88" s="20"/>
       <c r="G88" s="27"/>
@@ -4865,7 +5050,7 @@
       <c r="I88" s="20"/>
     </row>
     <row r="89" ht="12.75">
-      <c r="A89">
+      <c r="A89" s="43">
         <v>1</v>
       </c>
       <c r="E89" s="22" t="s">
@@ -4873,16 +5058,17 @@
       </c>
       <c r="F89" s="22"/>
       <c r="G89" s="23" t="s">
-        <v>156</v>
+        <v>175</v>
       </c>
       <c r="H89" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="I89" s="40" t="s">
-        <v>149</v>
+      <c r="I89" s="45" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="90" ht="12.75">
+      <c r="A90" s="43"/>
       <c r="E90" t="s">
         <v>55</v>
       </c>
@@ -4892,14 +5078,18 @@
       <c r="G90" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="I90" s="41"/>
+      <c r="H90" s="48" t="s">
+        <v>176</v>
+      </c>
+      <c r="I90" s="43"/>
     </row>
     <row r="91" ht="12.75">
+      <c r="A91" s="43"/>
       <c r="E91" t="s">
-        <v>3</v>
-      </c>
-      <c r="F91">
-        <v>60</v>
+        <v>160</v>
+      </c>
+      <c r="F91" s="35" t="s">
+        <v>178</v>
       </c>
       <c r="G91" s="29" t="s">
         <v>109</v>
@@ -4907,49 +5097,59 @@
       <c r="H91">
         <v>60</v>
       </c>
-      <c r="I91" s="41" t="s">
+      <c r="I91" s="43" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="92" ht="12.75">
+      <c r="A92" s="43"/>
+      <c r="E92" t="s">
+        <v>3</v>
+      </c>
+      <c r="F92">
+        <v>60</v>
+      </c>
       <c r="G92" s="29" t="s">
         <v>110</v>
       </c>
       <c r="H92">
         <v>60</v>
       </c>
-      <c r="I92" s="41" t="s">
+      <c r="I92" s="43" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="93" ht="12.75">
+      <c r="A93" s="43"/>
       <c r="G93" s="29" t="s">
         <v>111</v>
       </c>
       <c r="H93">
         <v>60</v>
       </c>
-      <c r="I93" s="41" t="s">
+      <c r="I93" s="43" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="94" ht="12.75">
-      <c r="G94" s="47" t="s">
-        <v>150</v>
-      </c>
-      <c r="H94" s="43">
+      <c r="A94" s="43"/>
+      <c r="G94" s="49" t="s">
+        <v>162</v>
+      </c>
+      <c r="H94" s="5">
         <v>20</v>
       </c>
-      <c r="I94" s="44" t="s">
+      <c r="I94" s="43" t="s">
         <v>94</v>
       </c>
-      <c r="J94" s="43"/>
+      <c r="J94" s="5"/>
     </row>
     <row r="95" ht="12.75">
-      <c r="G95" s="47"/>
-      <c r="H95" s="43"/>
-      <c r="I95" s="43"/>
-      <c r="J95" s="43"/>
+      <c r="A95" s="43"/>
+      <c r="G95" s="49"/>
+      <c r="H95" s="5"/>
+      <c r="I95" s="5"/>
+      <c r="J95" s="5"/>
     </row>
     <row r="96" ht="12.75">
       <c r="B96" s="20"/>
@@ -4967,13 +5167,25 @@
       <c r="B97" s="31" t="s">
         <v>136</v>
       </c>
+      <c r="C97" t="s">
+        <v>137</v>
+      </c>
       <c r="J97" s="3" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="98" ht="12.75">
       <c r="C98" t="s">
-        <v>137</v>
+        <v>68</v>
+      </c>
+      <c r="D98" t="s">
+        <v>36</v>
+      </c>
+      <c r="E98" s="36" t="s">
+        <v>179</v>
+      </c>
+      <c r="F98" s="36" t="s">
+        <v>3</v>
       </c>
       <c r="J98" s="32" t="s">
         <v>138</v>
@@ -4981,279 +5193,287 @@
     </row>
     <row r="99" ht="12.75">
       <c r="C99" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="D99" t="s">
-        <v>36</v>
+        <v>140</v>
+      </c>
+      <c r="E99" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="F99">
+        <v>10</v>
       </c>
       <c r="J99" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="100" ht="12.75">
-      <c r="C100" t="s">
-        <v>74</v>
-      </c>
-      <c r="D100" t="s">
-        <v>140</v>
-      </c>
+      <c r="C100" s="5"/>
+      <c r="D100" s="5"/>
       <c r="J100" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="101" ht="12.75">
-      <c r="C101" s="5"/>
-      <c r="D101" s="5"/>
       <c r="J101" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="102" ht="12.75">
-      <c r="C102" s="5"/>
-      <c r="D102" s="5"/>
+      <c r="B102" s="33" t="s">
+        <v>143</v>
+      </c>
+      <c r="C102" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="103" ht="12.75">
-      <c r="B103" s="33" t="s">
-        <v>143</v>
+      <c r="C103" t="s">
+        <v>68</v>
+      </c>
+      <c r="D103" t="s">
+        <v>144</v>
+      </c>
+      <c r="E103" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="F103" s="36" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="104" ht="12.75">
       <c r="C104" t="s">
+        <v>74</v>
+      </c>
+      <c r="D104" t="s">
+        <v>44</v>
+      </c>
+      <c r="E104" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="F104">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="105" ht="12.75">
+      <c r="C105" s="5"/>
+      <c r="D105" s="5"/>
+    </row>
+    <row r="106" ht="12.75">
+      <c r="B106" s="20"/>
+      <c r="C106" s="20"/>
+      <c r="D106" s="20"/>
+      <c r="E106" s="20"/>
+      <c r="F106" s="20"/>
+      <c r="G106" s="20"/>
+      <c r="H106" s="20"/>
+      <c r="I106" s="20"/>
+      <c r="J106" s="20"/>
+      <c r="K106" s="20"/>
+    </row>
+    <row r="107" ht="12.75">
+      <c r="B107" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="C107" s="15"/>
+      <c r="D107" s="16"/>
+      <c r="J107" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="108" ht="12.75">
+      <c r="B108" t="s">
+        <v>55</v>
+      </c>
+      <c r="C108" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="F108" s="5"/>
+      <c r="J108" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="109" ht="12.75">
+      <c r="B109" t="s">
+        <v>160</v>
+      </c>
+      <c r="C109" t="s">
+        <v>181</v>
+      </c>
+      <c r="D109" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="E109" s="48" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="110" ht="12.75">
+      <c r="B110" t="s">
+        <v>3</v>
+      </c>
+      <c r="C110">
+        <v>10</v>
+      </c>
+      <c r="D110" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="E110">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="111" ht="12.75">
+      <c r="D111" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="E111">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="112" ht="12.75">
+      <c r="D112" s="34" t="s">
+        <v>93</v>
+      </c>
+      <c r="E112">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="113" ht="12.75"/>
+    <row r="114" s="6" customFormat="1" ht="12.75">
+      <c r="A114" s="6"/>
+      <c r="C114" s="6"/>
+      <c r="D114" s="6"/>
+      <c r="E114" s="6"/>
+      <c r="F114" s="6"/>
+      <c r="G114" s="6"/>
+      <c r="H114" s="6"/>
+      <c r="I114" s="6"/>
+      <c r="J114" s="6"/>
+    </row>
+    <row r="115" ht="12.75">
+      <c r="B115" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="C115" t="s">
+        <v>184</v>
+      </c>
+      <c r="D115" t="s">
+        <v>185</v>
+      </c>
+      <c r="J115" s="36" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="116" ht="12.75">
+      <c r="C116" t="s">
+        <v>186</v>
+      </c>
+      <c r="D116" t="s">
+        <v>187</v>
+      </c>
+      <c r="E116" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="F116" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="G116" s="36" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="117" ht="12.75">
+      <c r="C117" t="s">
+        <v>188</v>
+      </c>
+      <c r="D117" t="s">
+        <v>184</v>
+      </c>
+      <c r="E117" t="s">
+        <v>50</v>
+      </c>
+      <c r="F117">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="118" ht="12.75">
+      <c r="C118" t="s">
+        <v>74</v>
+      </c>
+      <c r="D118" t="s">
+        <v>44</v>
+      </c>
+      <c r="E118" t="s">
+        <v>189</v>
+      </c>
+      <c r="F118">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="119" ht="12.75"/>
+    <row r="120" ht="12.75"/>
+    <row r="121" ht="12.75">
+      <c r="B121" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="C121" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="D121" s="5" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="105" ht="12.75">
-      <c r="C105" t="s">
+      <c r="E121" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="F121" s="36" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="122" ht="12.75">
+      <c r="C122" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="D105" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="106" ht="12.75">
-      <c r="C106" t="s">
-        <v>74</v>
-      </c>
-      <c r="D106" t="s">
+      <c r="D122" s="5" t="s">
         <v>44</v>
-      </c>
-    </row>
-    <row r="107" ht="12.75">
-      <c r="C107" s="5"/>
-      <c r="D107" s="5"/>
-    </row>
-    <row r="108" ht="12.75">
-      <c r="B108" s="20"/>
-      <c r="C108" s="20"/>
-      <c r="D108" s="20"/>
-      <c r="E108" s="20"/>
-      <c r="F108" s="20"/>
-      <c r="G108" s="20"/>
-      <c r="H108" s="20"/>
-      <c r="I108" s="20"/>
-      <c r="J108" s="20"/>
-      <c r="K108" s="20"/>
-    </row>
-    <row r="109" ht="12.75">
-      <c r="C109" s="5"/>
-      <c r="D109" s="5"/>
-      <c r="J109" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="110" ht="12.75">
-      <c r="B110" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="C110" s="15"/>
-      <c r="D110" s="16"/>
-      <c r="J110" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="111" ht="12.75">
-      <c r="B111" t="s">
-        <v>55</v>
-      </c>
-      <c r="C111" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="F111" s="5"/>
-    </row>
-    <row r="112" ht="12.75">
-      <c r="D112" s="17" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="113" ht="12.75">
-      <c r="B113" t="s">
-        <v>3</v>
-      </c>
-      <c r="C113">
-        <v>10</v>
-      </c>
-      <c r="D113" s="34" t="s">
-        <v>87</v>
-      </c>
-      <c r="E113">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="114" ht="12.75">
-      <c r="D114" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="E114">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="115" ht="12.75">
-      <c r="D115" s="34" t="s">
-        <v>93</v>
-      </c>
-      <c r="E115">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="116" ht="12.75">
-      <c r="D116" s="48"/>
-      <c r="E116" s="43"/>
-    </row>
-    <row r="117" ht="12.75">
-      <c r="D117" s="48"/>
-      <c r="E117" s="43"/>
-    </row>
-    <row r="118" ht="12.75"/>
-    <row r="119" s="6" customFormat="1" ht="12.75">
-      <c r="A119" s="6"/>
-      <c r="C119" s="6"/>
-      <c r="D119" s="6"/>
-      <c r="E119" s="6"/>
-      <c r="F119" s="6"/>
-      <c r="G119" s="6"/>
-      <c r="H119" s="6"/>
-      <c r="I119" s="6"/>
-      <c r="J119" s="6"/>
-    </row>
-    <row r="120" ht="12.75">
-      <c r="B120" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="C120" t="s">
-        <v>158</v>
-      </c>
-      <c r="D120" t="s">
-        <v>159</v>
-      </c>
-      <c r="J120" s="49" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="121" ht="12.75">
-      <c r="C121" t="s">
-        <v>160</v>
-      </c>
-      <c r="D121" t="s">
-        <v>161</v>
-      </c>
-      <c r="E121" s="41" t="s">
-        <v>60</v>
-      </c>
-      <c r="F121" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="G121" s="41" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="122" ht="12.75">
-      <c r="C122" t="s">
-        <v>163</v>
-      </c>
-      <c r="D122" t="s">
-        <v>158</v>
       </c>
       <c r="E122" t="s">
         <v>50</v>
       </c>
       <c r="F122">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="123" ht="12.75">
+      <c r="C123" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D123" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E123" t="s">
+        <v>189</v>
+      </c>
+      <c r="F123">
         <v>100</v>
-      </c>
-    </row>
-    <row r="123" ht="12.75">
-      <c r="C123" t="s">
-        <v>74</v>
-      </c>
-      <c r="D123" t="s">
-        <v>44</v>
-      </c>
-      <c r="E123" t="s">
-        <v>164</v>
-      </c>
-      <c r="F123">
-        <v>200</v>
       </c>
     </row>
     <row r="124" ht="12.75"/>
     <row r="125" ht="12.75"/>
-    <row r="126" ht="12.75">
-      <c r="B126" t="s">
-        <v>165</v>
-      </c>
-      <c r="C126" s="50" t="s">
-        <v>160</v>
-      </c>
-      <c r="D126" s="50" t="s">
-        <v>137</v>
-      </c>
-      <c r="E126" s="41" t="s">
-        <v>60</v>
-      </c>
-      <c r="F126" s="41" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="127" ht="12.75">
-      <c r="C127" s="50" t="s">
-        <v>68</v>
-      </c>
-      <c r="D127" s="50" t="s">
-        <v>44</v>
-      </c>
-      <c r="E127" t="s">
-        <v>50</v>
-      </c>
-      <c r="F127">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="128" ht="12.75">
-      <c r="C128" s="50" t="s">
-        <v>74</v>
-      </c>
-      <c r="D128" s="50" t="s">
-        <v>36</v>
-      </c>
-      <c r="E128" t="s">
-        <v>164</v>
-      </c>
-      <c r="F128">
-        <v>100</v>
-      </c>
-    </row>
+    <row r="126" s="6" customFormat="1" ht="12.75">
+      <c r="A126" s="6"/>
+      <c r="C126" s="6"/>
+      <c r="D126" s="6"/>
+      <c r="E126" s="6"/>
+      <c r="F126" s="6"/>
+      <c r="G126" s="6"/>
+      <c r="H126" s="6"/>
+      <c r="I126" s="6"/>
+      <c r="J126" s="6"/>
+    </row>
+    <row r="127" ht="12.75"/>
+    <row r="128" ht="12.75"/>
     <row r="129" ht="12.75"/>
     <row r="130" ht="12.75"/>
-    <row r="131" s="6" customFormat="1" ht="12.75">
-      <c r="A131" s="6"/>
-      <c r="C131" s="6"/>
-      <c r="D131" s="6"/>
-      <c r="E131" s="6"/>
-      <c r="F131" s="6"/>
-      <c r="G131" s="6"/>
-      <c r="H131" s="6"/>
-      <c r="I131" s="6"/>
-      <c r="J131" s="6"/>
-    </row>
+    <row r="131" ht="12.75"/>
     <row r="132" ht="12.75"/>
     <row r="133" ht="12.75"/>
     <row r="134" ht="12.75"/>
@@ -5263,21 +5483,16 @@
     <row r="138" ht="12.75"/>
     <row r="139" ht="12.75"/>
     <row r="140" ht="12.75"/>
-    <row r="141" ht="12.75"/>
     <row r="142" ht="12.75"/>
     <row r="143" ht="12.75"/>
     <row r="144" ht="12.75"/>
     <row r="145" ht="12.75"/>
-    <row r="147" ht="12.75"/>
-    <row r="148" ht="12.75"/>
+    <row r="146" ht="12.75"/>
     <row r="149" ht="12.75"/>
     <row r="150" ht="12.75"/>
     <row r="151" ht="12.75"/>
-    <row r="154" ht="12.75"/>
-    <row r="155" ht="12.75"/>
-    <row r="156" ht="12.75"/>
-    <row r="157" ht="12.75"/>
-    <row r="158" ht="12.75"/>
+    <row r="152" ht="12.75"/>
+    <row r="153" ht="12.75"/>
   </sheetData>
   <mergeCells count="10">
     <mergeCell ref="B1:J1"/>
@@ -5289,7 +5504,7 @@
     <mergeCell ref="D76:E76"/>
     <mergeCell ref="E82:F82"/>
     <mergeCell ref="E89:F89"/>
-    <mergeCell ref="B110:C110"/>
+    <mergeCell ref="B107:C107"/>
   </mergeCells>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>

--- a/warehouse_stock_and_manufacturing_process_design.xlsx
+++ b/warehouse_stock_and_manufacturing_process_design.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="196">
   <si>
     <t>Reference</t>
   </si>
@@ -487,6 +487,21 @@
   </si>
   <si>
     <t xml:space="preserve">Delivery order</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bill of Materials </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Product variant must be required</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Product Variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">constriant with Product Varient, BoM Type and company</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BoM Type</t>
   </si>
   <si>
     <t xml:space="preserve">Click request the Manufacturing Order from Delivery Order, System will generate below MO automaticaly create MO depand on BOM</t>
@@ -912,9 +927,6 @@
       <alignment horizontal="right"/>
       <protection hidden="0" locked="1"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyProtection="0">
-      <protection hidden="0" locked="1"/>
-    </xf>
     <xf fontId="5" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center"/>
       <protection hidden="0" locked="1"/>
@@ -929,6 +941,12 @@
     </xf>
     <xf fontId="0" fillId="9" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center"/>
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="3" fillId="4" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="0">
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyProtection="0">
       <protection hidden="0" locked="1"/>
     </xf>
     <xf fontId="19" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="0">
@@ -957,9 +975,6 @@
       <protection hidden="0" locked="1"/>
     </xf>
     <xf fontId="0" fillId="6" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyProtection="0">
-      <protection hidden="0" locked="1"/>
-    </xf>
-    <xf fontId="0" fillId="10" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyProtection="0">
       <protection hidden="0" locked="1"/>
     </xf>
     <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="0">
@@ -3857,7 +3872,7 @@
       <c r="E6" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="35" t="s">
+      <c r="F6" s="5" t="s">
         <v>149</v>
       </c>
     </row>
@@ -3913,7 +3928,7 @@
       <c r="E11" t="s">
         <v>39</v>
       </c>
-      <c r="F11" s="35" t="s">
+      <c r="F11" s="5" t="s">
         <v>37</v>
       </c>
     </row>
@@ -3935,7 +3950,7 @@
       <c r="E13" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F13" s="35" t="s">
+      <c r="F13" s="5" t="s">
         <v>150</v>
       </c>
     </row>
@@ -3958,7 +3973,7 @@
       <c r="E15" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F15" s="35" t="s">
+      <c r="F15" s="5" t="s">
         <v>148</v>
       </c>
     </row>
@@ -4082,19 +4097,19 @@
       <c r="C27" t="s">
         <v>152</v>
       </c>
-      <c r="D27" s="36" t="s">
+      <c r="D27" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="E27" s="36" t="s">
+      <c r="E27" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="F27" s="36" t="s">
+      <c r="F27" s="35" t="s">
         <v>153</v>
       </c>
-      <c r="G27" s="37" t="s">
+      <c r="G27" s="36" t="s">
         <v>154</v>
       </c>
-      <c r="H27" s="37" t="s">
+      <c r="H27" s="36" t="s">
         <v>155</v>
       </c>
       <c r="J27" t="s">
@@ -4157,19 +4172,19 @@
       <c r="C34" t="s">
         <v>44</v>
       </c>
-      <c r="D34" s="36" t="s">
+      <c r="D34" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="E34" s="36" t="s">
+      <c r="E34" s="35" t="s">
         <v>69</v>
       </c>
-      <c r="F34" s="38" t="s">
+      <c r="F34" s="37" t="s">
         <v>70</v>
       </c>
       <c r="G34" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="H34" s="39" t="s">
+      <c r="H34" s="38" t="s">
         <v>72</v>
       </c>
       <c r="J34" t="s">
@@ -4243,1268 +4258,1336 @@
     </row>
     <row r="40" ht="12.75"/>
     <row r="41" s="6" customFormat="1" ht="12.75"/>
-    <row r="42" s="0" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A42" s="11" t="s">
+    <row r="42" s="0" customFormat="1" ht="14.25">
+      <c r="B42" s="39" t="s">
+        <v>156</v>
+      </c>
+      <c r="J42" s="35" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="43" s="0" customFormat="1" ht="12.75">
+      <c r="B43"/>
+      <c r="C43" s="40" t="s">
+        <v>45</v>
+      </c>
+      <c r="J43" s="40" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="44" s="0" customFormat="1" ht="12.75">
+      <c r="A44"/>
+      <c r="B44"/>
+      <c r="C44" s="40" t="s">
+        <v>158</v>
+      </c>
+      <c r="J44" s="40" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="45" s="0" customFormat="1" ht="12.75">
+      <c r="A45"/>
+      <c r="B45"/>
+      <c r="C45" s="40" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" s="0" customFormat="1" ht="12.75">
+      <c r="A46"/>
+      <c r="B46"/>
+      <c r="C46" s="40" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" s="0" customFormat="1" ht="12.75">
+      <c r="A47"/>
+      <c r="B47"/>
+      <c r="C47" s="40" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="48" s="0" customFormat="1" ht="12.75">
+      <c r="A48"/>
+    </row>
+    <row r="49" s="0" customFormat="1" ht="12.75">
+      <c r="A49"/>
+      <c r="B49" s="20"/>
+      <c r="C49" s="20"/>
+      <c r="D49" s="20"/>
+      <c r="E49" s="20"/>
+      <c r="F49" s="20"/>
+      <c r="G49" s="20"/>
+      <c r="H49" s="20"/>
+      <c r="I49" s="20"/>
+      <c r="J49" s="20"/>
+      <c r="K49" s="20"/>
+      <c r="L49" s="20"/>
+    </row>
+    <row r="50" s="0" customFormat="1" ht="12.75">
+      <c r="A50"/>
+    </row>
+    <row r="51" s="0" customFormat="1" ht="22.5" customHeight="1">
+      <c r="A51" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="B42" s="40" t="s">
-        <v>156</v>
-      </c>
-      <c r="J42" s="3" t="s">
+      <c r="B51" s="41" t="s">
+        <v>161</v>
+      </c>
+      <c r="J51" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="43" s="0" customFormat="1" ht="14.25">
-      <c r="A43" s="8"/>
-      <c r="B43" s="41" t="s">
-        <v>157</v>
-      </c>
-      <c r="J43" s="3"/>
-    </row>
-    <row r="44" s="0" customFormat="1" ht="12.75">
-      <c r="A44" s="36">
-        <f>SUM(A45:A124)</f>
+    <row r="52" s="0" customFormat="1" ht="14.25">
+      <c r="A52" s="8"/>
+      <c r="B52" s="42" t="s">
+        <v>162</v>
+      </c>
+      <c r="J52" s="3"/>
+    </row>
+    <row r="53" s="0" customFormat="1" ht="12.75">
+      <c r="A53" s="35">
+        <f>SUM(A54:A133)</f>
         <v>8</v>
       </c>
-      <c r="B44" s="42"/>
-      <c r="C44" s="20"/>
-      <c r="D44" s="20"/>
-      <c r="E44" s="20"/>
-      <c r="F44" s="20"/>
-      <c r="G44" s="20"/>
-      <c r="H44" s="20"/>
-      <c r="I44" s="20"/>
-      <c r="J44" s="5" t="s">
+      <c r="B53" s="43"/>
+      <c r="C53" s="20"/>
+      <c r="D53" s="20"/>
+      <c r="E53" s="20"/>
+      <c r="F53" s="20"/>
+      <c r="G53" s="20"/>
+      <c r="H53" s="20"/>
+      <c r="I53" s="20"/>
+      <c r="J53" s="5" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="45" ht="12.75">
-      <c r="A45" s="43">
+    <row r="54" ht="12.75">
+      <c r="A54" s="44">
         <v>1</v>
       </c>
-      <c r="B45" s="15" t="s">
+      <c r="B54" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="C45" s="15"/>
-      <c r="D45" s="16"/>
-      <c r="E45" s="9" t="s">
+      <c r="C54" s="15"/>
+      <c r="D54" s="16"/>
+      <c r="E54" s="9" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="46" ht="12.75">
-      <c r="A46" s="43"/>
-      <c r="B46" t="s">
+    <row r="55" ht="12.75">
+      <c r="A55" s="44"/>
+      <c r="B55" t="s">
         <v>55</v>
       </c>
-      <c r="C46" s="10" t="s">
+      <c r="C55" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="D46" s="17" t="s">
+      <c r="D55" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="E46" s="44" t="s">
-        <v>158</v>
-      </c>
-      <c r="I46" s="45" t="s">
-        <v>159</v>
-      </c>
-      <c r="J46" s="8" t="s">
+      <c r="E55" s="45" t="s">
+        <v>163</v>
+      </c>
+      <c r="I55" s="46" t="s">
+        <v>164</v>
+      </c>
+      <c r="J55" s="8" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="47" ht="12.75">
-      <c r="A47" s="43"/>
-      <c r="B47" t="s">
-        <v>160</v>
-      </c>
-      <c r="C47" t="s">
-        <v>161</v>
-      </c>
-      <c r="D47" s="19" t="s">
+    <row r="56" ht="12.75">
+      <c r="A56" s="44"/>
+      <c r="B56" t="s">
+        <v>165</v>
+      </c>
+      <c r="C56" t="s">
+        <v>166</v>
+      </c>
+      <c r="D56" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="E47">
-        <v>10</v>
-      </c>
-      <c r="I47" s="43" t="s">
+      <c r="E56">
+        <v>10</v>
+      </c>
+      <c r="I56" s="44" t="s">
         <v>88</v>
       </c>
-      <c r="J47" t="s">
+      <c r="J56" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="48" ht="14.25" customHeight="1">
-      <c r="A48" s="43"/>
-      <c r="B48" t="s">
+    <row r="57" ht="14.25" customHeight="1">
+      <c r="A57" s="44"/>
+      <c r="B57" t="s">
         <v>3</v>
       </c>
-      <c r="C48">
-        <v>10</v>
-      </c>
-      <c r="D48" s="19" t="s">
+      <c r="C57">
+        <v>10</v>
+      </c>
+      <c r="D57" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="E48">
-        <v>10</v>
-      </c>
-      <c r="I48" s="43" t="s">
+      <c r="E57">
+        <v>10</v>
+      </c>
+      <c r="I57" s="44" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="49" ht="12.75">
-      <c r="A49" s="43"/>
-      <c r="B49" t="s">
+    <row r="58" ht="12.75">
+      <c r="A58" s="44"/>
+      <c r="B58" t="s">
         <v>90</v>
       </c>
-      <c r="C49">
+      <c r="C58">
         <v>0</v>
       </c>
-      <c r="D49" s="19" t="s">
+      <c r="D58" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="E49">
-        <v>10</v>
-      </c>
-      <c r="I49" s="43" t="s">
+      <c r="E58">
+        <v>10</v>
+      </c>
+      <c r="I58" s="44" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="50" ht="12.75">
-      <c r="A50" s="43"/>
-      <c r="D50" s="46" t="s">
-        <v>162</v>
-      </c>
-      <c r="E50" s="5">
+    <row r="59" ht="12.75">
+      <c r="A59" s="44"/>
+      <c r="D59" s="47" t="s">
+        <v>167</v>
+      </c>
+      <c r="E59" s="5">
         <v>20</v>
       </c>
-      <c r="G50" s="5"/>
-      <c r="I50" s="43" t="s">
+      <c r="G59" s="5"/>
+      <c r="I59" s="44" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="51" ht="12.75">
-      <c r="A51" s="43"/>
-      <c r="B51" s="47" t="s">
-        <v>163</v>
-      </c>
-      <c r="C51" s="20"/>
-      <c r="D51" s="21"/>
-      <c r="E51" s="20"/>
-      <c r="F51" s="20"/>
-      <c r="G51" s="20"/>
-      <c r="H51" s="20"/>
-      <c r="I51" s="20"/>
-      <c r="J51" s="8" t="s">
+    <row r="60" ht="12.75">
+      <c r="A60" s="44"/>
+      <c r="B60" s="48" t="s">
+        <v>168</v>
+      </c>
+      <c r="C60" s="20"/>
+      <c r="D60" s="21"/>
+      <c r="E60" s="20"/>
+      <c r="F60" s="20"/>
+      <c r="G60" s="20"/>
+      <c r="H60" s="20"/>
+      <c r="I60" s="20"/>
+      <c r="J60" s="8" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="52" ht="12.75">
-      <c r="A52" s="43">
+    <row r="61" ht="12.75">
+      <c r="A61" s="44">
         <v>1</v>
       </c>
-      <c r="C52" s="22" t="s">
+      <c r="C61" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="D52" s="22"/>
-      <c r="E52" s="23" t="s">
+      <c r="D61" s="22"/>
+      <c r="E61" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="F52" s="9" t="s">
+      <c r="F61" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="I52" s="45" t="s">
-        <v>159</v>
-      </c>
-      <c r="J52" s="18" t="s">
+      <c r="I61" s="46" t="s">
+        <v>164</v>
+      </c>
+      <c r="J61" s="18" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="53" ht="12.75">
-      <c r="A53" s="43"/>
-      <c r="C53" s="5" t="s">
+    <row r="62" ht="12.75">
+      <c r="A62" s="44"/>
+      <c r="C62" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="D53" s="24" t="s">
+      <c r="D62" s="24" t="s">
         <v>97</v>
       </c>
-      <c r="E53" s="17" t="s">
+      <c r="E62" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="F53" s="48" t="s">
-        <v>164</v>
-      </c>
-      <c r="I53" s="43"/>
-      <c r="J53" t="s">
+      <c r="F62" s="45" t="s">
+        <v>169</v>
+      </c>
+      <c r="I62" s="44"/>
+      <c r="J62" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="54" ht="12.75">
-      <c r="A54" s="43"/>
-      <c r="C54" t="s">
-        <v>160</v>
-      </c>
-      <c r="D54" t="s">
+    <row r="63" ht="12.75">
+      <c r="A63" s="44"/>
+      <c r="C63" t="s">
         <v>165</v>
       </c>
-      <c r="E54" s="25" t="s">
+      <c r="D63" t="s">
+        <v>170</v>
+      </c>
+      <c r="E63" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="F54">
-        <v>10</v>
-      </c>
-      <c r="I54" s="43" t="s">
+      <c r="F63">
+        <v>10</v>
+      </c>
+      <c r="I63" s="44" t="s">
         <v>88</v>
       </c>
-      <c r="J54" t="s">
+      <c r="J63" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="55" ht="12.75">
-      <c r="A55" s="43"/>
-      <c r="C55" t="s">
+    <row r="64" ht="12.75">
+      <c r="A64" s="44"/>
+      <c r="C64" t="s">
         <v>3</v>
       </c>
-      <c r="D55">
-        <v>10</v>
-      </c>
-      <c r="E55" s="25" t="s">
+      <c r="D64">
+        <v>10</v>
+      </c>
+      <c r="E64" s="25" t="s">
         <v>100</v>
       </c>
-      <c r="F55">
-        <v>10</v>
-      </c>
-      <c r="I55" s="43" t="s">
+      <c r="F64">
+        <v>10</v>
+      </c>
+      <c r="I64" s="44" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="56" ht="12.75">
-      <c r="A56" s="43"/>
-      <c r="C56" s="5"/>
-      <c r="E56" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="F56" s="5">
+    <row r="65" ht="12.75">
+      <c r="A65" s="44"/>
+      <c r="C65" s="5"/>
+      <c r="E65" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="F65" s="5">
         <v>20</v>
       </c>
-      <c r="H56" s="5"/>
-      <c r="I56" s="43" t="s">
+      <c r="H65" s="5"/>
+      <c r="I65" s="44" t="s">
         <v>94</v>
       </c>
-      <c r="N56" s="5"/>
-      <c r="O56" s="5"/>
-    </row>
-    <row r="57" ht="12.75">
-      <c r="A57" s="43"/>
-      <c r="C57" s="20"/>
-      <c r="D57" s="20"/>
-      <c r="E57" s="20"/>
-      <c r="F57" s="20"/>
-      <c r="G57" s="27"/>
-      <c r="H57" s="20"/>
-      <c r="I57" s="20"/>
-      <c r="J57" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="N57" s="5"/>
-      <c r="O57" s="5"/>
-    </row>
-    <row r="58" ht="12.75">
-      <c r="A58" s="43">
-        <v>1</v>
-      </c>
-      <c r="C58" s="22" t="s">
-        <v>117</v>
-      </c>
-      <c r="D58" s="22"/>
-      <c r="E58" s="23" t="s">
-        <v>96</v>
-      </c>
-      <c r="F58" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="I58" s="45" t="s">
-        <v>159</v>
-      </c>
-      <c r="J58" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="N58" s="5"/>
-      <c r="O58" s="5"/>
-    </row>
-    <row r="59" ht="12.75">
-      <c r="A59" s="43"/>
-      <c r="C59" t="s">
-        <v>55</v>
-      </c>
-      <c r="D59" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="E59" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="F59" s="48" t="s">
-        <v>164</v>
-      </c>
-      <c r="I59" s="43"/>
-      <c r="J59" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="N59" s="5"/>
-      <c r="O59" s="5"/>
-    </row>
-    <row r="60" ht="12.75">
-      <c r="A60" s="43"/>
-      <c r="C60" t="s">
-        <v>160</v>
-      </c>
-      <c r="D60" s="35" t="s">
-        <v>167</v>
-      </c>
-      <c r="E60" s="25" t="s">
-        <v>99</v>
-      </c>
-      <c r="F60">
-        <v>10</v>
-      </c>
-      <c r="I60" s="43" t="s">
-        <v>88</v>
-      </c>
-      <c r="N60" s="5"/>
-      <c r="O60" s="5"/>
-    </row>
-    <row r="61" ht="12.75">
-      <c r="A61" s="43"/>
-      <c r="C61" t="s">
-        <v>3</v>
-      </c>
-      <c r="D61">
-        <v>10</v>
-      </c>
-      <c r="E61" s="25" t="s">
-        <v>100</v>
-      </c>
-      <c r="F61">
-        <v>10</v>
-      </c>
-      <c r="I61" s="43" t="s">
-        <v>88</v>
-      </c>
-      <c r="N61" s="5"/>
-      <c r="O61" s="5"/>
-    </row>
-    <row r="62" ht="12.75">
-      <c r="A62" s="43"/>
-      <c r="E62" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="F62" s="5">
-        <v>20</v>
-      </c>
-      <c r="G62" s="5"/>
-      <c r="H62" s="5"/>
-      <c r="I62" s="43" t="s">
-        <v>94</v>
-      </c>
-      <c r="J62" s="5"/>
-    </row>
-    <row r="63" ht="12.75">
-      <c r="A63" s="43"/>
-      <c r="C63" s="20"/>
-      <c r="D63" s="20"/>
-      <c r="E63" s="30"/>
-      <c r="F63" s="20"/>
-      <c r="G63" s="20"/>
-      <c r="H63" s="20"/>
-      <c r="I63" s="20"/>
-      <c r="N63" s="5"/>
-      <c r="O63" s="5"/>
-    </row>
-    <row r="64" ht="12.75">
-      <c r="A64" s="43">
-        <v>1</v>
-      </c>
-      <c r="C64" s="22" t="s">
-        <v>126</v>
-      </c>
-      <c r="D64" s="22"/>
-      <c r="E64" s="23" t="s">
-        <v>96</v>
-      </c>
-      <c r="F64" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="I64" s="45" t="s">
-        <v>159</v>
-      </c>
-      <c r="N64" s="5"/>
-      <c r="O64" s="5"/>
-    </row>
-    <row r="65" ht="12.75">
-      <c r="A65" s="43"/>
-      <c r="C65" t="s">
-        <v>55</v>
-      </c>
-      <c r="D65" s="24" t="s">
-        <v>127</v>
-      </c>
-      <c r="E65" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="F65" s="44" t="s">
-        <v>164</v>
-      </c>
-      <c r="I65" s="43"/>
       <c r="N65" s="5"/>
       <c r="O65" s="5"/>
     </row>
     <row r="66" ht="12.75">
-      <c r="A66" s="43"/>
-      <c r="C66" t="s">
-        <v>160</v>
-      </c>
-      <c r="D66" s="35" t="s">
-        <v>168</v>
-      </c>
-      <c r="E66" s="25" t="s">
-        <v>99</v>
-      </c>
-      <c r="F66">
-        <v>10</v>
-      </c>
-      <c r="I66" s="43" t="s">
-        <v>88</v>
+      <c r="A66" s="44"/>
+      <c r="C66" s="20"/>
+      <c r="D66" s="20"/>
+      <c r="E66" s="20"/>
+      <c r="F66" s="20"/>
+      <c r="G66" s="27"/>
+      <c r="H66" s="20"/>
+      <c r="I66" s="20"/>
+      <c r="J66" s="8" t="s">
+        <v>171</v>
       </c>
       <c r="N66" s="5"/>
       <c r="O66" s="5"/>
     </row>
     <row r="67" ht="12.75">
-      <c r="A67" s="43"/>
-      <c r="C67" t="s">
-        <v>3</v>
-      </c>
-      <c r="D67">
-        <v>10</v>
-      </c>
-      <c r="E67" s="25" t="s">
-        <v>100</v>
-      </c>
-      <c r="F67">
-        <v>10</v>
-      </c>
-      <c r="I67" s="43" t="s">
-        <v>88</v>
+      <c r="A67" s="44">
+        <v>1</v>
+      </c>
+      <c r="C67" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="D67" s="22"/>
+      <c r="E67" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="F67" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="I67" s="46" t="s">
+        <v>164</v>
+      </c>
+      <c r="J67" s="5" t="s">
+        <v>103</v>
       </c>
       <c r="N67" s="5"/>
       <c r="O67" s="5"/>
     </row>
     <row r="68" ht="12.75">
-      <c r="A68" s="43"/>
-      <c r="E68" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="F68" s="5">
-        <v>20</v>
-      </c>
-      <c r="G68" s="5"/>
-      <c r="H68" s="5"/>
-      <c r="I68" s="43" t="s">
-        <v>94</v>
-      </c>
-      <c r="J68" s="5"/>
+      <c r="A68" s="44"/>
+      <c r="C68" t="s">
+        <v>55</v>
+      </c>
+      <c r="D68" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="E68" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="F68" s="45" t="s">
+        <v>169</v>
+      </c>
+      <c r="I68" s="44"/>
+      <c r="J68" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="N68" s="5"/>
+      <c r="O68" s="5"/>
     </row>
     <row r="69" ht="12.75">
-      <c r="A69" s="43"/>
-      <c r="B69" s="47" t="s">
-        <v>169</v>
-      </c>
-      <c r="C69" s="47"/>
-      <c r="D69" s="20"/>
-      <c r="E69" s="21"/>
-      <c r="F69" s="20"/>
-      <c r="G69" s="20"/>
-      <c r="H69" s="20"/>
-      <c r="I69" s="20"/>
+      <c r="A69" s="44"/>
+      <c r="C69" t="s">
+        <v>165</v>
+      </c>
+      <c r="D69" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="E69" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="F69">
+        <v>10</v>
+      </c>
+      <c r="I69" s="44" t="s">
+        <v>88</v>
+      </c>
       <c r="N69" s="5"/>
       <c r="O69" s="5"/>
     </row>
     <row r="70" ht="12.75">
-      <c r="A70" s="43">
-        <v>1</v>
-      </c>
-      <c r="D70" s="22" t="s">
-        <v>101</v>
-      </c>
-      <c r="E70" s="22"/>
-      <c r="F70" s="23" t="s">
-        <v>170</v>
-      </c>
-      <c r="G70" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="H70" s="5"/>
-      <c r="I70" s="45" t="s">
-        <v>159</v>
+      <c r="A70" s="44"/>
+      <c r="C70" t="s">
+        <v>3</v>
+      </c>
+      <c r="D70">
+        <v>10</v>
+      </c>
+      <c r="E70" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="F70">
+        <v>10</v>
+      </c>
+      <c r="I70" s="44" t="s">
+        <v>88</v>
       </c>
       <c r="N70" s="5"/>
       <c r="O70" s="5"/>
     </row>
     <row r="71" ht="12.75">
-      <c r="A71" s="43"/>
-      <c r="D71" t="s">
-        <v>55</v>
-      </c>
-      <c r="E71" s="25" t="s">
-        <v>99</v>
-      </c>
-      <c r="F71" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="G71" s="48" t="s">
-        <v>171</v>
-      </c>
+      <c r="A71" s="44"/>
+      <c r="E71" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="F71" s="5">
+        <v>20</v>
+      </c>
+      <c r="G71" s="5"/>
       <c r="H71" s="5"/>
-      <c r="I71" s="43"/>
-      <c r="N71" s="5"/>
-      <c r="O71" s="5"/>
+      <c r="I71" s="44" t="s">
+        <v>94</v>
+      </c>
+      <c r="J71" s="5"/>
     </row>
     <row r="72" ht="12.75">
-      <c r="A72" s="43"/>
-      <c r="D72" t="s">
-        <v>160</v>
-      </c>
-      <c r="E72" s="35" t="s">
-        <v>172</v>
-      </c>
-      <c r="F72" s="26" t="s">
-        <v>105</v>
-      </c>
-      <c r="G72" s="5">
-        <v>30</v>
-      </c>
-      <c r="H72" s="5"/>
-      <c r="I72" s="43" t="s">
-        <v>88</v>
-      </c>
+      <c r="A72" s="44"/>
+      <c r="C72" s="20"/>
+      <c r="D72" s="20"/>
+      <c r="E72" s="30"/>
+      <c r="F72" s="20"/>
+      <c r="G72" s="20"/>
+      <c r="H72" s="20"/>
+      <c r="I72" s="20"/>
       <c r="N72" s="5"/>
       <c r="O72" s="5"/>
     </row>
     <row r="73" ht="12.75">
-      <c r="A73" s="43"/>
-      <c r="D73" t="s">
-        <v>3</v>
-      </c>
-      <c r="E73">
-        <v>30</v>
-      </c>
-      <c r="F73" s="26" t="s">
-        <v>106</v>
-      </c>
-      <c r="G73" s="5">
-        <v>30</v>
-      </c>
-      <c r="H73" s="5"/>
-      <c r="I73" s="43" t="s">
-        <v>88</v>
+      <c r="A73" s="44">
+        <v>1</v>
+      </c>
+      <c r="C73" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="D73" s="22"/>
+      <c r="E73" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="F73" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="I73" s="46" t="s">
+        <v>164</v>
       </c>
       <c r="N73" s="5"/>
       <c r="O73" s="5"/>
     </row>
     <row r="74" ht="12.75">
-      <c r="A74" s="43"/>
-      <c r="C74" s="5"/>
-      <c r="D74" s="5"/>
-      <c r="F74" s="49" t="s">
-        <v>162</v>
-      </c>
-      <c r="G74">
-        <v>20</v>
-      </c>
-      <c r="I74" s="43" t="s">
-        <v>94</v>
-      </c>
-      <c r="J74" s="5"/>
+      <c r="A74" s="44"/>
+      <c r="C74" t="s">
+        <v>55</v>
+      </c>
+      <c r="D74" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="E74" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="F74" s="45" t="s">
+        <v>169</v>
+      </c>
+      <c r="I74" s="44"/>
       <c r="N74" s="5"/>
       <c r="O74" s="5"/>
     </row>
     <row r="75" ht="12.75">
-      <c r="A75" s="43"/>
-      <c r="D75" s="20"/>
-      <c r="E75" s="20"/>
-      <c r="F75" s="20"/>
-      <c r="G75" s="27"/>
-      <c r="H75" s="20"/>
-      <c r="I75" s="20"/>
+      <c r="A75" s="44"/>
+      <c r="C75" t="s">
+        <v>165</v>
+      </c>
+      <c r="D75" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="E75" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="F75">
+        <v>10</v>
+      </c>
+      <c r="I75" s="44" t="s">
+        <v>88</v>
+      </c>
+      <c r="N75" s="5"/>
+      <c r="O75" s="5"/>
     </row>
     <row r="76" ht="12.75">
-      <c r="A76" s="43">
+      <c r="A76" s="44"/>
+      <c r="C76" t="s">
+        <v>3</v>
+      </c>
+      <c r="D76">
+        <v>10</v>
+      </c>
+      <c r="E76" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="F76">
+        <v>10</v>
+      </c>
+      <c r="I76" s="44" t="s">
+        <v>88</v>
+      </c>
+      <c r="N76" s="5"/>
+      <c r="O76" s="5"/>
+    </row>
+    <row r="77" ht="12.75">
+      <c r="A77" s="44"/>
+      <c r="E77" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="F77" s="5">
+        <v>20</v>
+      </c>
+      <c r="G77" s="5"/>
+      <c r="H77" s="5"/>
+      <c r="I77" s="44" t="s">
+        <v>94</v>
+      </c>
+      <c r="J77" s="5"/>
+    </row>
+    <row r="78" ht="12.75">
+      <c r="A78" s="44"/>
+      <c r="B78" s="48" t="s">
+        <v>174</v>
+      </c>
+      <c r="C78" s="48"/>
+      <c r="D78" s="20"/>
+      <c r="E78" s="21"/>
+      <c r="F78" s="20"/>
+      <c r="G78" s="20"/>
+      <c r="H78" s="20"/>
+      <c r="I78" s="20"/>
+      <c r="N78" s="5"/>
+      <c r="O78" s="5"/>
+    </row>
+    <row r="79" ht="12.75">
+      <c r="A79" s="44">
         <v>1</v>
       </c>
-      <c r="C76" s="5"/>
-      <c r="D76" s="22" t="s">
-        <v>113</v>
-      </c>
-      <c r="E76" s="22"/>
-      <c r="F76" s="23" t="s">
-        <v>170</v>
-      </c>
-      <c r="G76" s="9" t="s">
+      <c r="D79" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="E79" s="22"/>
+      <c r="F79" s="23" t="s">
+        <v>175</v>
+      </c>
+      <c r="G79" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="I76" s="45" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="77" ht="12.75">
-      <c r="A77" s="43"/>
-      <c r="C77" s="5"/>
-      <c r="D77" t="s">
+      <c r="H79" s="5"/>
+      <c r="I79" s="46" t="s">
+        <v>164</v>
+      </c>
+      <c r="N79" s="5"/>
+      <c r="O79" s="5"/>
+    </row>
+    <row r="80" ht="12.75">
+      <c r="A80" s="44"/>
+      <c r="D80" t="s">
         <v>55</v>
       </c>
-      <c r="E77" s="25" t="s">
-        <v>100</v>
-      </c>
-      <c r="F77" s="17" t="s">
+      <c r="E80" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="F80" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="G77" s="44" t="s">
-        <v>171</v>
-      </c>
-      <c r="I77" s="43"/>
-    </row>
-    <row r="78" ht="12.75">
-      <c r="A78" s="43"/>
-      <c r="C78" s="5"/>
-      <c r="D78" t="s">
-        <v>160</v>
-      </c>
-      <c r="E78" s="35" t="s">
-        <v>173</v>
-      </c>
-      <c r="F78" s="26" t="s">
+      <c r="G80" s="45" t="s">
+        <v>176</v>
+      </c>
+      <c r="H80" s="5"/>
+      <c r="I80" s="44"/>
+      <c r="N80" s="5"/>
+      <c r="O80" s="5"/>
+    </row>
+    <row r="81" ht="12.75">
+      <c r="A81" s="44"/>
+      <c r="D81" t="s">
+        <v>165</v>
+      </c>
+      <c r="E81" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="F81" s="26" t="s">
         <v>105</v>
       </c>
-      <c r="G78" s="5">
+      <c r="G81" s="5">
         <v>30</v>
       </c>
-      <c r="I78" s="43" t="s">
+      <c r="H81" s="5"/>
+      <c r="I81" s="44" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="79" ht="12.75">
-      <c r="A79" s="43"/>
-      <c r="C79" s="5"/>
-      <c r="D79" t="s">
+      <c r="N81" s="5"/>
+      <c r="O81" s="5"/>
+    </row>
+    <row r="82" ht="12.75">
+      <c r="A82" s="44"/>
+      <c r="D82" t="s">
         <v>3</v>
       </c>
-      <c r="E79">
+      <c r="E82">
         <v>30</v>
       </c>
-      <c r="F79" s="26" t="s">
+      <c r="F82" s="26" t="s">
         <v>106</v>
       </c>
-      <c r="G79" s="5">
+      <c r="G82" s="5">
         <v>30</v>
       </c>
-      <c r="I79" s="43" t="s">
+      <c r="H82" s="5"/>
+      <c r="I82" s="44" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="80" ht="12.75">
-      <c r="A80" s="43"/>
-      <c r="D80" s="5"/>
-      <c r="E80" s="5"/>
-      <c r="F80" s="49" t="s">
-        <v>162</v>
-      </c>
-      <c r="G80">
-        <v>20</v>
-      </c>
-      <c r="H80" s="5"/>
-      <c r="I80" s="43" t="s">
-        <v>94</v>
-      </c>
-      <c r="J80" s="5"/>
-    </row>
-    <row r="81" ht="12.75">
-      <c r="A81" s="43"/>
-      <c r="B81" s="47" t="s">
-        <v>174</v>
-      </c>
-      <c r="C81" s="47"/>
-      <c r="D81" s="47"/>
-      <c r="E81" s="20"/>
-      <c r="F81" s="27"/>
-      <c r="G81" s="20"/>
-      <c r="H81" s="20"/>
-      <c r="I81" s="20"/>
-    </row>
-    <row r="82" ht="12.75">
-      <c r="A82" s="43">
-        <v>1</v>
-      </c>
-      <c r="C82" s="5"/>
-      <c r="D82" s="5"/>
-      <c r="E82" s="22" t="s">
-        <v>107</v>
-      </c>
-      <c r="F82" s="22"/>
-      <c r="G82" s="23" t="s">
-        <v>175</v>
-      </c>
-      <c r="H82" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="I82" s="45" t="s">
-        <v>159</v>
-      </c>
+      <c r="N82" s="5"/>
+      <c r="O82" s="5"/>
     </row>
     <row r="83" ht="12.75">
-      <c r="A83" s="43"/>
+      <c r="A83" s="44"/>
       <c r="C83" s="5"/>
       <c r="D83" s="5"/>
-      <c r="E83" s="5" t="s">
+      <c r="F83" s="49" t="s">
+        <v>167</v>
+      </c>
+      <c r="G83">
+        <v>20</v>
+      </c>
+      <c r="I83" s="44" t="s">
+        <v>94</v>
+      </c>
+      <c r="J83" s="5"/>
+      <c r="N83" s="5"/>
+      <c r="O83" s="5"/>
+    </row>
+    <row r="84" ht="12.75">
+      <c r="A84" s="44"/>
+      <c r="D84" s="20"/>
+      <c r="E84" s="20"/>
+      <c r="F84" s="20"/>
+      <c r="G84" s="27"/>
+      <c r="H84" s="20"/>
+      <c r="I84" s="20"/>
+    </row>
+    <row r="85" ht="12.75">
+      <c r="A85" s="44">
+        <v>1</v>
+      </c>
+      <c r="C85" s="5"/>
+      <c r="D85" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="E85" s="22"/>
+      <c r="F85" s="23" t="s">
+        <v>175</v>
+      </c>
+      <c r="G85" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="I85" s="46" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="86" ht="12.75">
+      <c r="A86" s="44"/>
+      <c r="C86" s="5"/>
+      <c r="D86" t="s">
         <v>55</v>
       </c>
-      <c r="F83" s="28" t="s">
+      <c r="E86" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="F86" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="G86" s="45" t="s">
+        <v>176</v>
+      </c>
+      <c r="I86" s="44"/>
+    </row>
+    <row r="87" ht="12.75">
+      <c r="A87" s="44"/>
+      <c r="C87" s="5"/>
+      <c r="D87" t="s">
+        <v>165</v>
+      </c>
+      <c r="E87" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="F87" s="26" t="s">
         <v>105</v>
       </c>
-      <c r="G83" s="17" t="s">
+      <c r="G87" s="5">
+        <v>30</v>
+      </c>
+      <c r="I87" s="44" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="88" ht="12.75">
+      <c r="A88" s="44"/>
+      <c r="C88" s="5"/>
+      <c r="D88" t="s">
+        <v>3</v>
+      </c>
+      <c r="E88">
+        <v>30</v>
+      </c>
+      <c r="F88" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="G88" s="5">
+        <v>30</v>
+      </c>
+      <c r="I88" s="44" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="89" ht="12.75">
+      <c r="A89" s="44"/>
+      <c r="D89" s="5"/>
+      <c r="E89" s="5"/>
+      <c r="F89" s="49" t="s">
+        <v>167</v>
+      </c>
+      <c r="G89">
+        <v>20</v>
+      </c>
+      <c r="H89" s="5"/>
+      <c r="I89" s="44" t="s">
+        <v>94</v>
+      </c>
+      <c r="J89" s="5"/>
+    </row>
+    <row r="90" ht="12.75">
+      <c r="A90" s="44"/>
+      <c r="B90" s="48" t="s">
+        <v>179</v>
+      </c>
+      <c r="C90" s="48"/>
+      <c r="D90" s="48"/>
+      <c r="E90" s="20"/>
+      <c r="F90" s="27"/>
+      <c r="G90" s="20"/>
+      <c r="H90" s="20"/>
+      <c r="I90" s="20"/>
+    </row>
+    <row r="91" ht="12.75">
+      <c r="A91" s="44">
+        <v>1</v>
+      </c>
+      <c r="C91" s="5"/>
+      <c r="D91" s="5"/>
+      <c r="E91" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="F91" s="22"/>
+      <c r="G91" s="23" t="s">
+        <v>180</v>
+      </c>
+      <c r="H91" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="I91" s="46" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="92" ht="12.75">
+      <c r="A92" s="44"/>
+      <c r="C92" s="5"/>
+      <c r="D92" s="5"/>
+      <c r="E92" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F92" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="G92" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="H83" s="48" t="s">
-        <v>176</v>
-      </c>
-      <c r="I83" s="43"/>
-    </row>
-    <row r="84" ht="12.75">
-      <c r="A84" s="43"/>
-      <c r="C84" s="5"/>
-      <c r="D84" s="5"/>
-      <c r="E84" t="s">
-        <v>160</v>
-      </c>
-      <c r="F84" s="35" t="s">
-        <v>177</v>
-      </c>
-      <c r="G84" s="29" t="s">
+      <c r="H92" s="45" t="s">
+        <v>181</v>
+      </c>
+      <c r="I92" s="44"/>
+    </row>
+    <row r="93" ht="12.75">
+      <c r="A93" s="44"/>
+      <c r="C93" s="5"/>
+      <c r="D93" s="5"/>
+      <c r="E93" t="s">
+        <v>165</v>
+      </c>
+      <c r="F93" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="G93" s="29" t="s">
         <v>109</v>
       </c>
-      <c r="H84" s="5">
+      <c r="H93" s="5">
         <v>60</v>
       </c>
-      <c r="I84" s="43" t="s">
+      <c r="I93" s="44" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="85" ht="12.75">
-      <c r="A85" s="43"/>
-      <c r="C85" s="5"/>
-      <c r="D85" s="5"/>
-      <c r="E85" t="s">
+    <row r="94" ht="12.75">
+      <c r="A94" s="44"/>
+      <c r="C94" s="5"/>
+      <c r="D94" s="5"/>
+      <c r="E94" t="s">
         <v>3</v>
       </c>
-      <c r="F85">
+      <c r="F94">
         <v>60</v>
       </c>
-      <c r="G85" s="29" t="s">
+      <c r="G94" s="29" t="s">
         <v>110</v>
       </c>
-      <c r="H85" s="5">
+      <c r="H94" s="5">
         <v>60</v>
       </c>
-      <c r="I85" s="43" t="s">
+      <c r="I94" s="44" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="86" ht="12.75">
-      <c r="A86" s="43"/>
-      <c r="G86" s="29" t="s">
+    <row r="95" ht="12.75">
+      <c r="A95" s="44"/>
+      <c r="G95" s="29" t="s">
         <v>111</v>
       </c>
-      <c r="H86">
+      <c r="H95">
         <v>60</v>
       </c>
-      <c r="I86" s="43" t="s">
+      <c r="I95" s="44" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="87" ht="12.75">
-      <c r="A87" s="43"/>
-      <c r="G87" s="49" t="s">
-        <v>162</v>
-      </c>
-      <c r="H87" s="5">
+    <row r="96" ht="12.75">
+      <c r="A96" s="44"/>
+      <c r="G96" s="49" t="s">
+        <v>167</v>
+      </c>
+      <c r="H96" s="5">
         <v>20</v>
       </c>
-      <c r="I87" s="43" t="s">
+      <c r="I96" s="44" t="s">
         <v>94</v>
       </c>
-      <c r="J87" s="5"/>
-    </row>
-    <row r="88" ht="12.75">
-      <c r="A88" s="43"/>
-      <c r="E88" s="20"/>
-      <c r="F88" s="20"/>
-      <c r="G88" s="27"/>
-      <c r="H88" s="20"/>
-      <c r="I88" s="20"/>
-    </row>
-    <row r="89" ht="12.75">
-      <c r="A89" s="43">
+      <c r="J96" s="5"/>
+    </row>
+    <row r="97" ht="12.75">
+      <c r="A97" s="44"/>
+      <c r="E97" s="20"/>
+      <c r="F97" s="20"/>
+      <c r="G97" s="27"/>
+      <c r="H97" s="20"/>
+      <c r="I97" s="20"/>
+    </row>
+    <row r="98" ht="12.75">
+      <c r="A98" s="44">
         <v>1</v>
       </c>
-      <c r="E89" s="22" t="s">
+      <c r="E98" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="F89" s="22"/>
-      <c r="G89" s="23" t="s">
-        <v>175</v>
-      </c>
-      <c r="H89" s="9" t="s">
+      <c r="F98" s="22"/>
+      <c r="G98" s="23" t="s">
+        <v>180</v>
+      </c>
+      <c r="H98" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="I89" s="45" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="90" ht="12.75">
-      <c r="A90" s="43"/>
-      <c r="E90" t="s">
+      <c r="I98" s="46" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="99" ht="12.75">
+      <c r="A99" s="44"/>
+      <c r="E99" t="s">
         <v>55</v>
       </c>
-      <c r="F90" s="28" t="s">
+      <c r="F99" s="28" t="s">
         <v>106</v>
       </c>
-      <c r="G90" s="17" t="s">
+      <c r="G99" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="H90" s="48" t="s">
-        <v>176</v>
-      </c>
-      <c r="I90" s="43"/>
-    </row>
-    <row r="91" ht="12.75">
-      <c r="A91" s="43"/>
-      <c r="E91" t="s">
-        <v>160</v>
-      </c>
-      <c r="F91" s="35" t="s">
-        <v>178</v>
-      </c>
-      <c r="G91" s="29" t="s">
+      <c r="H99" s="45" t="s">
+        <v>181</v>
+      </c>
+      <c r="I99" s="44"/>
+    </row>
+    <row r="100" ht="12.75">
+      <c r="A100" s="44"/>
+      <c r="E100" t="s">
+        <v>165</v>
+      </c>
+      <c r="F100" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="G100" s="29" t="s">
         <v>109</v>
       </c>
-      <c r="H91">
+      <c r="H100">
         <v>60</v>
       </c>
-      <c r="I91" s="43" t="s">
+      <c r="I100" s="44" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="92" ht="12.75">
-      <c r="A92" s="43"/>
-      <c r="E92" t="s">
+    <row r="101" ht="12.75">
+      <c r="A101" s="44"/>
+      <c r="E101" t="s">
         <v>3</v>
       </c>
-      <c r="F92">
+      <c r="F101">
         <v>60</v>
       </c>
-      <c r="G92" s="29" t="s">
+      <c r="G101" s="29" t="s">
         <v>110</v>
       </c>
-      <c r="H92">
+      <c r="H101">
         <v>60</v>
       </c>
-      <c r="I92" s="43" t="s">
+      <c r="I101" s="44" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="93" ht="12.75">
-      <c r="A93" s="43"/>
-      <c r="G93" s="29" t="s">
+    <row r="102" ht="12.75">
+      <c r="A102" s="44"/>
+      <c r="G102" s="29" t="s">
         <v>111</v>
       </c>
-      <c r="H93">
+      <c r="H102">
         <v>60</v>
       </c>
-      <c r="I93" s="43" t="s">
+      <c r="I102" s="44" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="94" ht="12.75">
-      <c r="A94" s="43"/>
-      <c r="G94" s="49" t="s">
-        <v>162</v>
-      </c>
-      <c r="H94" s="5">
+    <row r="103" ht="12.75">
+      <c r="A103" s="44"/>
+      <c r="G103" s="49" t="s">
+        <v>167</v>
+      </c>
+      <c r="H103" s="5">
         <v>20</v>
       </c>
-      <c r="I94" s="43" t="s">
+      <c r="I103" s="44" t="s">
         <v>94</v>
       </c>
-      <c r="J94" s="5"/>
-    </row>
-    <row r="95" ht="12.75">
-      <c r="A95" s="43"/>
-      <c r="G95" s="49"/>
-      <c r="H95" s="5"/>
-      <c r="I95" s="5"/>
-      <c r="J95" s="5"/>
-    </row>
-    <row r="96" ht="12.75">
-      <c r="B96" s="20"/>
-      <c r="C96" s="20"/>
-      <c r="D96" s="20"/>
-      <c r="E96" s="20"/>
-      <c r="F96" s="20"/>
-      <c r="G96" s="20"/>
-      <c r="H96" s="20"/>
-      <c r="I96" s="20"/>
-      <c r="J96" s="20"/>
-      <c r="K96" s="20"/>
-    </row>
-    <row r="97" ht="12.75">
-      <c r="B97" s="31" t="s">
+      <c r="J103" s="5"/>
+    </row>
+    <row r="104" ht="12.75">
+      <c r="A104" s="44"/>
+      <c r="G104" s="49"/>
+      <c r="H104" s="5"/>
+      <c r="I104" s="5"/>
+      <c r="J104" s="5"/>
+    </row>
+    <row r="105" ht="12.75">
+      <c r="B105" s="20"/>
+      <c r="C105" s="20"/>
+      <c r="D105" s="20"/>
+      <c r="E105" s="20"/>
+      <c r="F105" s="20"/>
+      <c r="G105" s="20"/>
+      <c r="H105" s="20"/>
+      <c r="I105" s="20"/>
+      <c r="J105" s="20"/>
+      <c r="K105" s="20"/>
+    </row>
+    <row r="106" ht="12.75">
+      <c r="B106" s="31" t="s">
         <v>136</v>
       </c>
-      <c r="C97" t="s">
+      <c r="C106" t="s">
         <v>137</v>
       </c>
-      <c r="J97" s="3" t="s">
+      <c r="J106" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="98" ht="12.75">
-      <c r="C98" t="s">
+    <row r="107" ht="12.75">
+      <c r="C107" t="s">
         <v>68</v>
       </c>
-      <c r="D98" t="s">
+      <c r="D107" t="s">
         <v>36</v>
       </c>
-      <c r="E98" s="36" t="s">
-        <v>179</v>
-      </c>
-      <c r="F98" s="36" t="s">
+      <c r="E107" s="35" t="s">
+        <v>184</v>
+      </c>
+      <c r="F107" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="J98" s="32" t="s">
+      <c r="J107" s="32" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="99" ht="12.75">
-      <c r="C99" t="s">
+    <row r="108" ht="12.75">
+      <c r="C108" t="s">
         <v>74</v>
       </c>
-      <c r="D99" t="s">
+      <c r="D108" t="s">
         <v>140</v>
       </c>
-      <c r="E99" s="10" t="s">
+      <c r="E108" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="F99">
-        <v>10</v>
-      </c>
-      <c r="J99" t="s">
+      <c r="F108">
+        <v>10</v>
+      </c>
+      <c r="J108" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="100" ht="12.75">
-      <c r="C100" s="5"/>
-      <c r="D100" s="5"/>
-      <c r="J100" t="s">
+    <row r="109" ht="12.75">
+      <c r="C109" s="5"/>
+      <c r="D109" s="5"/>
+      <c r="J109" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="101" ht="12.75">
-      <c r="J101" t="s">
+    <row r="110" ht="12.75">
+      <c r="J110" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="102" ht="12.75">
-      <c r="B102" s="33" t="s">
+    <row r="111" ht="12.75">
+      <c r="B111" s="33" t="s">
         <v>143</v>
       </c>
-      <c r="C102" t="s">
+      <c r="C111" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="103" ht="12.75">
-      <c r="C103" t="s">
+    <row r="112" ht="12.75">
+      <c r="C112" t="s">
         <v>68</v>
       </c>
-      <c r="D103" t="s">
+      <c r="D112" t="s">
         <v>144</v>
       </c>
-      <c r="E103" s="36" t="s">
+      <c r="E112" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="F103" s="36" t="s">
+      <c r="F112" s="35" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="104" ht="12.75">
-      <c r="C104" t="s">
+    <row r="113" ht="12.75">
+      <c r="C113" t="s">
         <v>74</v>
       </c>
-      <c r="D104" t="s">
+      <c r="D113" t="s">
         <v>44</v>
       </c>
-      <c r="E104" s="12" t="s">
-        <v>180</v>
-      </c>
-      <c r="F104">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="105" ht="12.75">
-      <c r="C105" s="5"/>
-      <c r="D105" s="5"/>
-    </row>
-    <row r="106" ht="12.75">
-      <c r="B106" s="20"/>
-      <c r="C106" s="20"/>
-      <c r="D106" s="20"/>
-      <c r="E106" s="20"/>
-      <c r="F106" s="20"/>
-      <c r="G106" s="20"/>
-      <c r="H106" s="20"/>
-      <c r="I106" s="20"/>
-      <c r="J106" s="20"/>
-      <c r="K106" s="20"/>
-    </row>
-    <row r="107" ht="12.75">
-      <c r="B107" s="15" t="s">
+      <c r="E113" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="F113">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="114" ht="12.75">
+      <c r="C114" s="5"/>
+      <c r="D114" s="5"/>
+    </row>
+    <row r="115" ht="12.75">
+      <c r="B115" s="20"/>
+      <c r="C115" s="20"/>
+      <c r="D115" s="20"/>
+      <c r="E115" s="20"/>
+      <c r="F115" s="20"/>
+      <c r="G115" s="20"/>
+      <c r="H115" s="20"/>
+      <c r="I115" s="20"/>
+      <c r="J115" s="20"/>
+      <c r="K115" s="20"/>
+    </row>
+    <row r="116" ht="12.75">
+      <c r="B116" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="C107" s="15"/>
-      <c r="D107" s="16"/>
-      <c r="J107" s="3" t="s">
+      <c r="C116" s="15"/>
+      <c r="D116" s="16"/>
+      <c r="J116" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="108" ht="12.75">
-      <c r="B108" t="s">
+    <row r="117" ht="12.75">
+      <c r="B117" t="s">
         <v>55</v>
       </c>
-      <c r="C108" s="10" t="s">
+      <c r="C117" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="F108" s="5"/>
-      <c r="J108" t="s">
+      <c r="F117" s="5"/>
+      <c r="J117" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="109" ht="12.75">
-      <c r="B109" t="s">
-        <v>160</v>
-      </c>
-      <c r="C109" t="s">
-        <v>181</v>
-      </c>
-      <c r="D109" s="17" t="s">
+    <row r="118" ht="12.75">
+      <c r="B118" t="s">
+        <v>165</v>
+      </c>
+      <c r="C118" t="s">
+        <v>186</v>
+      </c>
+      <c r="D118" s="17" t="s">
         <v>146</v>
       </c>
-      <c r="E109" s="48" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="110" ht="12.75">
-      <c r="B110" t="s">
+      <c r="E118" s="45" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="119" ht="12.75">
+      <c r="B119" t="s">
         <v>3</v>
       </c>
-      <c r="C110">
-        <v>10</v>
-      </c>
-      <c r="D110" s="34" t="s">
+      <c r="C119">
+        <v>10</v>
+      </c>
+      <c r="D119" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="E110">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="111" ht="12.75">
-      <c r="D111" s="34" t="s">
+      <c r="E119">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="120" ht="12.75">
+      <c r="D120" s="34" t="s">
         <v>91</v>
       </c>
-      <c r="E111">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="112" ht="12.75">
-      <c r="D112" s="34" t="s">
+      <c r="E120">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="121" ht="12.75">
+      <c r="D121" s="34" t="s">
         <v>93</v>
       </c>
-      <c r="E112">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="113" ht="12.75"/>
-    <row r="114" s="6" customFormat="1" ht="12.75">
-      <c r="A114" s="6"/>
-      <c r="C114" s="6"/>
-      <c r="D114" s="6"/>
-      <c r="E114" s="6"/>
-      <c r="F114" s="6"/>
-      <c r="G114" s="6"/>
-      <c r="H114" s="6"/>
-      <c r="I114" s="6"/>
-      <c r="J114" s="6"/>
-    </row>
-    <row r="115" ht="12.75">
-      <c r="B115" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="C115" t="s">
-        <v>184</v>
-      </c>
-      <c r="D115" t="s">
-        <v>185</v>
-      </c>
-      <c r="J115" s="36" t="s">
+      <c r="E121">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="122" ht="12.75"/>
+    <row r="123" s="6" customFormat="1" ht="12.75">
+      <c r="A123" s="6"/>
+      <c r="C123" s="6"/>
+      <c r="D123" s="6"/>
+      <c r="E123" s="6"/>
+      <c r="F123" s="6"/>
+      <c r="G123" s="6"/>
+      <c r="H123" s="6"/>
+      <c r="I123" s="6"/>
+      <c r="J123" s="6"/>
+    </row>
+    <row r="124" ht="12.75">
+      <c r="B124" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="C124" t="s">
+        <v>189</v>
+      </c>
+      <c r="D124" t="s">
+        <v>190</v>
+      </c>
+      <c r="J124" s="35" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="116" ht="12.75">
-      <c r="C116" t="s">
-        <v>186</v>
-      </c>
-      <c r="D116" t="s">
-        <v>187</v>
-      </c>
-      <c r="E116" s="36" t="s">
+    <row r="125" ht="12.75">
+      <c r="C125" t="s">
+        <v>191</v>
+      </c>
+      <c r="D125" t="s">
+        <v>192</v>
+      </c>
+      <c r="E125" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="F116" s="36" t="s">
+      <c r="F125" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="G116" s="36" t="s">
+      <c r="G125" s="35" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="117" ht="12.75">
-      <c r="C117" t="s">
-        <v>188</v>
-      </c>
-      <c r="D117" t="s">
-        <v>184</v>
-      </c>
-      <c r="E117" t="s">
+    <row r="126" ht="12.75">
+      <c r="C126" t="s">
+        <v>193</v>
+      </c>
+      <c r="D126" t="s">
+        <v>189</v>
+      </c>
+      <c r="E126" t="s">
         <v>50</v>
       </c>
-      <c r="F117">
+      <c r="F126">
         <v>100</v>
       </c>
     </row>
-    <row r="118" ht="12.75">
-      <c r="C118" t="s">
+    <row r="127" ht="12.75">
+      <c r="C127" t="s">
         <v>74</v>
       </c>
-      <c r="D118" t="s">
+      <c r="D127" t="s">
         <v>44</v>
       </c>
-      <c r="E118" t="s">
-        <v>189</v>
-      </c>
-      <c r="F118">
+      <c r="E127" t="s">
+        <v>194</v>
+      </c>
+      <c r="F127">
         <v>200</v>
       </c>
     </row>
-    <row r="119" ht="12.75"/>
-    <row r="120" ht="12.75"/>
-    <row r="121" ht="12.75">
-      <c r="B121" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="C121" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="D121" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="E121" s="36" t="s">
-        <v>60</v>
-      </c>
-      <c r="F121" s="36" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="122" ht="12.75">
-      <c r="C122" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="D122" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E122" t="s">
-        <v>50</v>
-      </c>
-      <c r="F122">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="123" ht="12.75">
-      <c r="C123" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="D123" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E123" t="s">
-        <v>189</v>
-      </c>
-      <c r="F123">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="124" ht="12.75"/>
-    <row r="125" ht="12.75"/>
-    <row r="126" s="6" customFormat="1" ht="12.75">
-      <c r="A126" s="6"/>
-      <c r="C126" s="6"/>
-      <c r="D126" s="6"/>
-      <c r="E126" s="6"/>
-      <c r="F126" s="6"/>
-      <c r="G126" s="6"/>
-      <c r="H126" s="6"/>
-      <c r="I126" s="6"/>
-      <c r="J126" s="6"/>
-    </row>
-    <row r="127" ht="12.75"/>
     <row r="128" ht="12.75"/>
     <row r="129" ht="12.75"/>
-    <row r="130" ht="12.75"/>
-    <row r="131" ht="12.75"/>
-    <row r="132" ht="12.75"/>
+    <row r="130" ht="12.75">
+      <c r="B130" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="C130" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="D130" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="E130" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="F130" s="35" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="131" ht="12.75">
+      <c r="C131" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D131" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E131" t="s">
+        <v>50</v>
+      </c>
+      <c r="F131">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="132" ht="12.75">
+      <c r="C132" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D132" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E132" t="s">
+        <v>194</v>
+      </c>
+      <c r="F132">
+        <v>100</v>
+      </c>
+    </row>
     <row r="133" ht="12.75"/>
     <row r="134" ht="12.75"/>
-    <row r="135" ht="12.75"/>
+    <row r="135" s="6" customFormat="1" ht="12.75">
+      <c r="A135" s="6"/>
+      <c r="C135" s="6"/>
+      <c r="D135" s="6"/>
+      <c r="E135" s="6"/>
+      <c r="F135" s="6"/>
+      <c r="G135" s="6"/>
+      <c r="H135" s="6"/>
+      <c r="I135" s="6"/>
+      <c r="J135" s="6"/>
+    </row>
     <row r="136" ht="12.75"/>
     <row r="137" ht="12.75"/>
     <row r="138" ht="12.75"/>
     <row r="139" ht="12.75"/>
     <row r="140" ht="12.75"/>
+    <row r="141" ht="12.75"/>
     <row r="142" ht="12.75"/>
     <row r="143" ht="12.75"/>
     <row r="144" ht="12.75"/>
     <row r="145" ht="12.75"/>
     <row r="146" ht="12.75"/>
+    <row r="147" ht="12.75"/>
+    <row r="148" ht="12.75"/>
     <row r="149" ht="12.75"/>
-    <row r="150" ht="12.75"/>
     <row r="151" ht="12.75"/>
     <row r="152" ht="12.75"/>
     <row r="153" ht="12.75"/>
+    <row r="154" ht="12.75"/>
+    <row r="155" ht="12.75"/>
+    <row r="158" ht="12.75"/>
+    <row r="159" ht="12.75"/>
+    <row r="160" ht="12.75"/>
+    <row r="161" ht="12.75"/>
+    <row r="162" ht="12.75"/>
   </sheetData>
   <mergeCells count="10">
     <mergeCell ref="B1:J1"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="D70:E70"/>
-    <mergeCell ref="D76:E76"/>
-    <mergeCell ref="E82:F82"/>
-    <mergeCell ref="E89:F89"/>
-    <mergeCell ref="B107:C107"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="D79:E79"/>
+    <mergeCell ref="D85:E85"/>
+    <mergeCell ref="E91:F91"/>
+    <mergeCell ref="E98:F98"/>
+    <mergeCell ref="B116:C116"/>
   </mergeCells>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
